--- a/PoskusCiv2/SAVfile.xlsx
+++ b/PoskusCiv2/SAVfile.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\DOS\CIV 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milos\source\repos\RTciv2\PoskusCiv2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B405C001-F358-46C8-B393-11BA031E6792}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D4E65FE-3176-42F1-858E-7D2E1CFC3B21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11700" yWindow="684" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="206">
   <si>
     <t>BYTE OFFSET (DEC)</t>
   </si>
@@ -210,9 +210,6 @@
   </si>
   <si>
     <t>34-35</t>
-  </si>
-  <si>
-    <t>Which unit is selected at start of the game</t>
   </si>
   <si>
     <t>Human player</t>
@@ -442,13 +439,234 @@
   </si>
   <si>
     <t>The information is stored in 7 blocks (not for barbarians), each 242 bytes long (242*7=1694 bytes).</t>
+  </si>
+  <si>
+    <t>TECH &amp; MONEY</t>
+  </si>
+  <si>
+    <t>8E6-3585</t>
+  </si>
+  <si>
+    <t>2278-13701</t>
+  </si>
+  <si>
+    <t>8 blocks, for 7 civs + barbarians</t>
+  </si>
+  <si>
+    <t>Each block 1427 bytes long (1427*8 = 11416 bytes)</t>
+  </si>
+  <si>
+    <t>block 1 (civ0 = barbarians)</t>
+  </si>
+  <si>
+    <t>block 2 (civ1)</t>
+  </si>
+  <si>
+    <t>block 4 (civ3)</t>
+  </si>
+  <si>
+    <t>block 3 (civ2)</t>
+  </si>
+  <si>
+    <t>block 5 (civ4)</t>
+  </si>
+  <si>
+    <t>block 6 (civ5)</t>
+  </si>
+  <si>
+    <t>block 7 (civ6)</t>
+  </si>
+  <si>
+    <t>block 8 (civ7)</t>
+  </si>
+  <si>
+    <t>8E6-E79</t>
+  </si>
+  <si>
+    <t>E7A-140D</t>
+  </si>
+  <si>
+    <t>140E-19A1</t>
+  </si>
+  <si>
+    <t>19A2-1F35</t>
+  </si>
+  <si>
+    <t>1F36-24C9</t>
+  </si>
+  <si>
+    <t>24CA-2A5D</t>
+  </si>
+  <si>
+    <t>2A5E-2FF1</t>
+  </si>
+  <si>
+    <t>2FF2-3585</t>
+  </si>
+  <si>
+    <t>2278-3705</t>
+  </si>
+  <si>
+    <t>3706-5133</t>
+  </si>
+  <si>
+    <t>5134-6561</t>
+  </si>
+  <si>
+    <t>6562-7989</t>
+  </si>
+  <si>
+    <t>7990-9417</t>
+  </si>
+  <si>
+    <t>9418-10845</t>
+  </si>
+  <si>
+    <t>10846-12273</t>
+  </si>
+  <si>
+    <t>12274-13701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Block N offset + 1 </t>
+  </si>
+  <si>
+    <t>Ruler gender (0=male/2=female)</t>
+  </si>
+  <si>
+    <t>Block N offset + 2-3</t>
+  </si>
+  <si>
+    <t>Money</t>
+  </si>
+  <si>
+    <t>Block N offset + 8</t>
+  </si>
+  <si>
+    <t>Research progress</t>
+  </si>
+  <si>
+    <t>Block N offset + 10</t>
+  </si>
+  <si>
+    <t>Tech researched (FF(hex)=cleared or no goal)</t>
+  </si>
+  <si>
+    <t>Block N offset + 20</t>
+  </si>
+  <si>
+    <t>Percentages to tax, science and luxuries</t>
+  </si>
+  <si>
+    <t>Block N offset + 21</t>
+  </si>
+  <si>
+    <t>Government. Valid values are 00-07 (though 07 does not normally exist).
+A value of 08 or higher causes the game to crash. 00 is of course Anarchy,
+01 is Despotism, etc. You can give the barbarians a Democratic (06) government to prevent their cities being subverted</t>
+  </si>
+  <si>
+    <t>Block N offset + 30</t>
+  </si>
+  <si>
+    <t>Reputation</t>
+  </si>
+  <si>
+    <t>Block N offset + 36-63</t>
+  </si>
+  <si>
+    <t>Treaties (4 bytes for each civ)</t>
+  </si>
+  <si>
+    <t>Block N offset + 36</t>
+  </si>
+  <si>
+    <t>contact</t>
+  </si>
+  <si>
+    <t>cease fire</t>
+  </si>
+  <si>
+    <t>peace</t>
+  </si>
+  <si>
+    <t>vendetta</t>
+  </si>
+  <si>
+    <t>embassy</t>
+  </si>
+  <si>
+    <t>Block N offset + 37</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>Block N offset + 65-71</t>
+  </si>
+  <si>
+    <t>Attitudes (each byte attitude to each player)</t>
+  </si>
+  <si>
+    <t>Technologies</t>
+  </si>
+  <si>
+    <t>Block N offset + 88-99</t>
+  </si>
+  <si>
+    <t>Block N offset + 88</t>
+  </si>
+  <si>
+    <t>1st technology</t>
+  </si>
+  <si>
+    <t>2nd technology</t>
+  </si>
+  <si>
+    <t>3rd technology</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>8th technology</t>
+  </si>
+  <si>
+    <t>Block N offset + 89</t>
+  </si>
+  <si>
+    <t>9th technology</t>
+  </si>
+  <si>
+    <t>10th technology</t>
+  </si>
+  <si>
+    <t>Block N offset + 102-103</t>
+  </si>
+  <si>
+    <t>Military demographics value</t>
+  </si>
+  <si>
+    <t>Block N offset + 996-1009</t>
+  </si>
+  <si>
+    <t>last contact with civs. First two to 1st civ, 3rd and 4th for 2nd civ, etc.
+FF FF if not available, 01 00 for 1, etc.
+		note: It may be that the FF FF in byte 3E3 and 3E4 are for last
+contact with barbarians, but that is not verifiable.</t>
+  </si>
+  <si>
+    <t>?? How does this work??</t>
+  </si>
+  <si>
+    <t>Which unit is selected at start of the game (FFFF(hex) = no unit)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -465,8 +683,15 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -488,6 +713,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -621,7 +852,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -677,9 +908,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -709,6 +937,20 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Navadno" xfId="0" builtinId="0"/>
@@ -989,16 +1231,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E86"/>
+  <dimension ref="A1:F122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E68" sqref="E68"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.21875" style="2" customWidth="1"/>
     <col min="3" max="3" width="19.6640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="16.5546875" style="2" customWidth="1"/>
@@ -1011,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D1" s="18" t="s">
         <v>12</v>
@@ -1369,7 +1611,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="6"/>
       <c r="C33" s="7"/>
@@ -1380,7 +1622,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="6"/>
       <c r="C34" s="7"/>
@@ -1391,7 +1633,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="6"/>
       <c r="C35" s="7"/>
@@ -1402,7 +1644,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="6"/>
       <c r="C36" s="7"/>
@@ -1413,7 +1655,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="6"/>
       <c r="C37" s="7"/>
@@ -1424,7 +1666,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="6"/>
       <c r="C38" s="7"/>
@@ -1435,7 +1677,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1"/>
       <c r="B39" s="9"/>
       <c r="C39" s="10"/>
@@ -1446,7 +1688,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="3">
         <v>23</v>
@@ -1459,7 +1701,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="6"/>
       <c r="C41" s="7"/>
@@ -1470,7 +1712,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1"/>
       <c r="B42" s="9"/>
       <c r="C42" s="10"/>
@@ -1481,7 +1723,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1"/>
       <c r="B43" s="17" t="s">
         <v>54</v>
@@ -1492,7 +1734,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1"/>
       <c r="B44" s="17" t="s">
         <v>56</v>
@@ -1502,8 +1744,11 @@
       <c r="E44" s="20" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F44" s="39" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="1"/>
       <c r="B45" s="17" t="s">
         <v>58</v>
@@ -1511,10 +1756,10 @@
       <c r="C45" s="18"/>
       <c r="D45" s="18"/>
       <c r="E45" s="20" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1"/>
       <c r="B46" s="17">
         <v>39</v>
@@ -1522,10 +1767,10 @@
       <c r="C46" s="18"/>
       <c r="D46" s="18"/>
       <c r="E46" s="20" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="1"/>
       <c r="B47" s="17">
         <v>40</v>
@@ -1533,10 +1778,10 @@
       <c r="C47" s="18"/>
       <c r="D47" s="18"/>
       <c r="E47" s="20" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="1"/>
       <c r="B48" s="17">
         <v>41</v>
@@ -1544,7 +1789,7 @@
       <c r="C48" s="18"/>
       <c r="D48" s="18"/>
       <c r="E48" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1555,7 +1800,7 @@
       <c r="C49" s="18"/>
       <c r="D49" s="18"/>
       <c r="E49" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1566,7 +1811,7 @@
       <c r="C50" s="18"/>
       <c r="D50" s="18"/>
       <c r="E50" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1577,7 +1822,7 @@
       <c r="C51" s="18"/>
       <c r="D51" s="18"/>
       <c r="E51" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1588,7 +1833,7 @@
       <c r="C52" s="18"/>
       <c r="D52" s="18"/>
       <c r="E52" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
@@ -1599,7 +1844,7 @@
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1608,7 +1853,7 @@
       <c r="C54" s="10"/>
       <c r="D54" s="10"/>
       <c r="E54" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
@@ -1619,7 +1864,7 @@
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
       <c r="E55" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1628,29 +1873,29 @@
       <c r="C56" s="10"/>
       <c r="D56" s="10"/>
       <c r="E56" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="58.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="1"/>
-      <c r="B57" s="24">
+      <c r="B57" s="23">
         <v>50</v>
       </c>
-      <c r="C57" s="32"/>
+      <c r="C57" s="31"/>
       <c r="D57" s="18"/>
       <c r="E57" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="129.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1"/>
-      <c r="B58" s="24">
+      <c r="B58" s="23">
         <v>51</v>
       </c>
-      <c r="C58" s="32"/>
+      <c r="C58" s="31"/>
       <c r="D58" s="18"/>
       <c r="E58" s="22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1661,283 +1906,736 @@
       <c r="C59" s="18"/>
       <c r="D59" s="18"/>
       <c r="E59" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="1"/>
-      <c r="B60" s="24" t="s">
+      <c r="B60" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C60" s="31"/>
+      <c r="D60" s="18"/>
+      <c r="E60" s="25" t="s">
         <v>74</v>
-      </c>
-      <c r="C60" s="32"/>
-      <c r="D60" s="18"/>
-      <c r="E60" s="26" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="1"/>
-      <c r="B61" s="24" t="s">
+      <c r="B61" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C61" s="31"/>
+      <c r="D61" s="18"/>
+      <c r="E61" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="C61" s="32"/>
-      <c r="D61" s="18"/>
-      <c r="E61" s="26" t="s">
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="26" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="27" t="s">
+      <c r="B62" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>79</v>
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
-      <c r="E62" s="28" t="s">
-        <v>81</v>
+      <c r="E62" s="27" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="31"/>
-      <c r="B63" s="29" t="s">
-        <v>80</v>
+      <c r="A63" s="30"/>
+      <c r="B63" s="28" t="s">
+        <v>79</v>
       </c>
       <c r="C63" s="14"/>
       <c r="D63" s="7"/>
-      <c r="E63" s="25" t="s">
-        <v>82</v>
+      <c r="E63" s="24" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="31"/>
+      <c r="A64" s="30"/>
       <c r="B64" s="6"/>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
-      <c r="E64" s="25" t="s">
-        <v>83</v>
+      <c r="E64" s="24" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="31"/>
+      <c r="A65" s="30"/>
       <c r="B65" s="6"/>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
-      <c r="E65" s="25" t="s">
-        <v>84</v>
+      <c r="E65" s="24" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="31"/>
+      <c r="A66" s="30"/>
       <c r="B66" s="9"/>
       <c r="C66" s="10"/>
       <c r="D66" s="10"/>
-      <c r="E66" s="30" t="s">
+      <c r="E66" s="29" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A67" s="32" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A67" s="33" t="s">
+      <c r="B67" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="C67" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="B67" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="C67" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="E67" s="25" t="s">
+      <c r="D67" s="4"/>
+      <c r="E67" s="27" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="33"/>
+      <c r="B68" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D68" s="7"/>
+      <c r="E68" s="24" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="33"/>
+      <c r="B69" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D69" s="7"/>
+      <c r="E69" s="24" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="33"/>
+      <c r="B70" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D70" s="7"/>
+      <c r="E70" s="24" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="33"/>
+      <c r="B71" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D71" s="7"/>
+      <c r="E71" s="24" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="33"/>
+      <c r="B72" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D72" s="7"/>
+      <c r="E72" s="24" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="33"/>
+      <c r="B73" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D73" s="7"/>
+      <c r="E73" s="24" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="33"/>
+      <c r="B74" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D74" s="7"/>
+      <c r="E74" s="24" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="33"/>
+      <c r="B75" s="6"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="24" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="33"/>
+      <c r="B76" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="C76" s="18"/>
+      <c r="D76" s="18"/>
+      <c r="E76" s="25" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="33"/>
+      <c r="B77" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="C77" s="18"/>
+      <c r="D77" s="18"/>
+      <c r="E77" s="25" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="33"/>
+      <c r="B78" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="C78" s="18"/>
+      <c r="D78" s="18"/>
+      <c r="E78" s="25" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="33"/>
+      <c r="B79" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="C79" s="18"/>
+      <c r="D79" s="18"/>
+      <c r="E79" s="25" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="33"/>
+      <c r="B80" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C80" s="18"/>
+      <c r="D80" s="18"/>
+      <c r="E80" s="25" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="33"/>
+      <c r="B81" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="C81" s="18"/>
+      <c r="D81" s="18"/>
+      <c r="E81" s="25" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="33"/>
+      <c r="B82" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="C82" s="18"/>
+      <c r="D82" s="18"/>
+      <c r="E82" s="25" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="33"/>
+      <c r="B83" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="C83" s="18"/>
+      <c r="D83" s="18"/>
+      <c r="E83" s="25" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="33"/>
+      <c r="B84" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="C84" s="18"/>
+      <c r="D84" s="18"/>
+      <c r="E84" s="25" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="33"/>
+      <c r="B85" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="C85" s="18"/>
+      <c r="D85" s="18"/>
+      <c r="E85" s="25" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="33"/>
+      <c r="B86" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="C86" s="18"/>
+      <c r="D86" s="18"/>
+      <c r="E86" s="25" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" s="36" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="34"/>
-      <c r="B68" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E68" s="25" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="34"/>
-      <c r="B69" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E69" s="25" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="34"/>
-      <c r="B70" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E70" s="25" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="34"/>
-      <c r="B71" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E71" s="25" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="34"/>
-      <c r="B72" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E72" s="25" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="34"/>
-      <c r="B73" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E73" s="25" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="34"/>
-      <c r="B74" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E74" s="25" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="34"/>
-      <c r="E75" s="25" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="34"/>
-      <c r="B76" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E76" s="25" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="34"/>
-      <c r="B77" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E77" s="25" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="34"/>
-      <c r="B78" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E78" s="25" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="34"/>
-      <c r="B79" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E79" s="25" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="34"/>
-      <c r="B80" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E80" s="25" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="34"/>
-      <c r="B81" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="E81" s="25" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="34"/>
-      <c r="B82" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E82" s="25" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="34"/>
-      <c r="B83" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E83" s="25" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="34"/>
-      <c r="B84" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E84" s="25" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" s="34"/>
-      <c r="B85" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E85" s="25" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A86" s="34"/>
-      <c r="B86" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E86" s="25" t="s">
-        <v>131</v>
+      <c r="B87" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C87" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="D87" s="4"/>
+      <c r="E87" s="27" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" s="38"/>
+      <c r="B88" s="6"/>
+      <c r="C88" s="7"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" s="38"/>
+      <c r="B89" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D89" s="7"/>
+      <c r="E89" s="24" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" s="38"/>
+      <c r="B90" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D90" s="7"/>
+      <c r="E90" s="24" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" s="38"/>
+      <c r="B91" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D91" s="7"/>
+      <c r="E91" s="24" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" s="38"/>
+      <c r="B92" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="D92" s="7"/>
+      <c r="E92" s="24" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" s="38"/>
+      <c r="B93" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D93" s="7"/>
+      <c r="E93" s="24" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" s="38"/>
+      <c r="B94" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D94" s="7"/>
+      <c r="E94" s="24" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" s="38"/>
+      <c r="B95" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D95" s="7"/>
+      <c r="E95" s="24" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="38"/>
+      <c r="B96" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C96" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D96" s="10"/>
+      <c r="E96" s="29" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="38"/>
+      <c r="B97" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="C97" s="18"/>
+      <c r="D97" s="18"/>
+      <c r="E97" s="25" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="38"/>
+      <c r="B98" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="C98" s="18"/>
+      <c r="D98" s="18"/>
+      <c r="E98" s="25" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="38"/>
+      <c r="B99" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="C99" s="18"/>
+      <c r="D99" s="18"/>
+      <c r="E99" s="25" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="38"/>
+      <c r="B100" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="C100" s="18"/>
+      <c r="D100" s="18"/>
+      <c r="E100" s="25" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="38"/>
+      <c r="B101" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="C101" s="18"/>
+      <c r="D101" s="18"/>
+      <c r="E101" s="25" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="38"/>
+      <c r="B102" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="C102" s="18"/>
+      <c r="D102" s="18"/>
+      <c r="E102" s="25" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="38"/>
+      <c r="B103" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C103" s="4"/>
+      <c r="D103" s="4"/>
+      <c r="E103" s="27" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104" s="38"/>
+      <c r="B104" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C104" s="4"/>
+      <c r="D104" s="4"/>
+      <c r="E104" s="27" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" s="38"/>
+      <c r="B105" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="C105" s="7"/>
+      <c r="D105" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E105" s="24" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" s="38"/>
+      <c r="B106" s="6"/>
+      <c r="C106" s="7"/>
+      <c r="D106" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E106" s="24" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107" s="38"/>
+      <c r="B107" s="6"/>
+      <c r="C107" s="7"/>
+      <c r="D107" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E107" s="24" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108" s="38"/>
+      <c r="B108" s="6"/>
+      <c r="C108" s="7"/>
+      <c r="D108" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E108" s="24" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109" s="38"/>
+      <c r="B109" s="6"/>
+      <c r="C109" s="7"/>
+      <c r="D109" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E109" s="24" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A110" s="38"/>
+      <c r="B110" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="C110" s="10"/>
+      <c r="D110" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E110" s="29" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A111" s="38"/>
+      <c r="B111" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C111" s="4"/>
+      <c r="D111" s="4"/>
+      <c r="E111" s="27" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112" s="38"/>
+      <c r="B112" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C112" s="4"/>
+      <c r="D112" s="4"/>
+      <c r="E112" s="27" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A113" s="38"/>
+      <c r="B113" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C113" s="7"/>
+      <c r="D113" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E113" s="24" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114" s="38"/>
+      <c r="B114" s="6"/>
+      <c r="C114" s="7"/>
+      <c r="D114" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E114" s="24" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115" s="38"/>
+      <c r="B115" s="6"/>
+      <c r="C115" s="7"/>
+      <c r="D115" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E115" s="24" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116" s="38"/>
+      <c r="B116" s="6"/>
+      <c r="C116" s="7"/>
+      <c r="D116" s="7"/>
+      <c r="E116" s="24" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117" s="38"/>
+      <c r="B117" s="6"/>
+      <c r="C117" s="7"/>
+      <c r="D117" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E117" s="24" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118" s="38"/>
+      <c r="B118" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="C118" s="7"/>
+      <c r="D118" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E118" s="24" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119" s="38"/>
+      <c r="B119" s="6"/>
+      <c r="C119" s="7"/>
+      <c r="D119" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E119" s="24" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A120" s="38"/>
+      <c r="B120" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="C120" s="10"/>
+      <c r="D120" s="10"/>
+      <c r="E120" s="29" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A121" s="38"/>
+      <c r="B121" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="C121" s="18"/>
+      <c r="D121" s="18"/>
+      <c r="E121" s="25" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A122" s="38"/>
+      <c r="B122" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="C122" s="18"/>
+      <c r="D122" s="18"/>
+      <c r="E122" s="22" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>

--- a/PoskusCiv2/SAVfile.xlsx
+++ b/PoskusCiv2/SAVfile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milos\source\repos\RTciv2\PoskusCiv2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D4E65FE-3176-42F1-858E-7D2E1CFC3B21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5870794A-C747-42C3-A721-E9AF90CDB361}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="317">
   <si>
     <t>BYTE OFFSET (DEC)</t>
   </si>
@@ -660,18 +660,380 @@
   </si>
   <si>
     <t>Which unit is selected at start of the game (FFFF(hex) = no unit)</t>
+  </si>
+  <si>
+    <t>MAPS</t>
+  </si>
+  <si>
+    <t>13702-13703</t>
+  </si>
+  <si>
+    <t>3586-3587</t>
+  </si>
+  <si>
+    <t>Map dimension X (*2 for civ2-coordinates)</t>
+  </si>
+  <si>
+    <t>13704-13705</t>
+  </si>
+  <si>
+    <t>3588-3589</t>
+  </si>
+  <si>
+    <t>Map dimension Y</t>
+  </si>
+  <si>
+    <t>13706-13707</t>
+  </si>
+  <si>
+    <t>358A-358B</t>
+  </si>
+  <si>
+    <t>Map area (Xdim * Ydim)</t>
+  </si>
+  <si>
+    <t>13708-13709</t>
+  </si>
+  <si>
+    <t>358C-358D</t>
+  </si>
+  <si>
+    <t>Determined at beginning of file instead of here</t>
+  </si>
+  <si>
+    <t>13710-13711</t>
+  </si>
+  <si>
+    <t>358E-358F</t>
+  </si>
+  <si>
+    <t>Map seed</t>
+  </si>
+  <si>
+    <t>13712-13713</t>
+  </si>
+  <si>
+    <t>3590-3591</t>
+  </si>
+  <si>
+    <t>=(MapXdim*2)/4 (rounded up). Used for minimap.</t>
+  </si>
+  <si>
+    <t>13714-13715</t>
+  </si>
+  <si>
+    <t>3592-3593</t>
+  </si>
+  <si>
+    <t>=MapYdim/4 (rounded up). Used for minimap.</t>
+  </si>
+  <si>
+    <t>13702-13715</t>
+  </si>
+  <si>
+    <t>3586-3593</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Map header.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Starts with offset=13432(dec) for Conflicts in civilization version and 13702(dec) for other versions</t>
+    </r>
+  </si>
+  <si>
+    <t>Map block 1</t>
+  </si>
+  <si>
+    <t>7*Xdim*Ydim bytes (1 byte for each square). Each of 7 is for individual civs.</t>
+  </si>
+  <si>
+    <t>0000 0000</t>
+  </si>
+  <si>
+    <t>Nothing present on this tile.</t>
+  </si>
+  <si>
+    <t>13702-</t>
+  </si>
+  <si>
+    <t>-(13702+7*Xdim*Ydim)</t>
+  </si>
+  <si>
+    <t>3594-</t>
+  </si>
+  <si>
+    <t>-(3594+7*Xdim*Ydim)</t>
+  </si>
+  <si>
+    <t>---- ---1</t>
+  </si>
+  <si>
+    <t>Unit present.</t>
+  </si>
+  <si>
+    <t>---- --1-</t>
+  </si>
+  <si>
+    <t>City present.</t>
+  </si>
+  <si>
+    <t>---- -1--</t>
+  </si>
+  <si>
+    <t>Irrigation present.</t>
+  </si>
+  <si>
+    <t>---- 1---</t>
+  </si>
+  <si>
+    <t>Mining present.</t>
+  </si>
+  <si>
+    <t>---1 ----</t>
+  </si>
+  <si>
+    <t>Road present.</t>
+  </si>
+  <si>
+    <t>Railroad present.</t>
+  </si>
+  <si>
+    <t>-1-- ----</t>
+  </si>
+  <si>
+    <t>Fortress present.</t>
+  </si>
+  <si>
+    <t>1--- ----</t>
+  </si>
+  <si>
+    <t>Pollution present.</t>
+  </si>
+  <si>
+    <t>Airbase present.</t>
+  </si>
+  <si>
+    <t>-1-- --1-</t>
+  </si>
+  <si>
+    <t>--11 ----</t>
+  </si>
+  <si>
+    <t>---- 11--</t>
+  </si>
+  <si>
+    <t>Farmland present.</t>
+  </si>
+  <si>
+    <t>for Nth civ, Mth tile:</t>
+  </si>
+  <si>
+    <t>Map block 2</t>
+  </si>
+  <si>
+    <t>6*Xdim*Ydim (6 bytes for each square in a map). One map for all civs.</t>
+  </si>
+  <si>
+    <t>offset_B2=13702+7*Xdim*Ydim</t>
+  </si>
+  <si>
+    <t>offset_B2 + 0</t>
+  </si>
+  <si>
+    <t>1000 0000</t>
+  </si>
+  <si>
+    <t>offset_B2 + 1</t>
+  </si>
+  <si>
+    <t>0000 0001</t>
+  </si>
+  <si>
+    <t>1000 0001</t>
+  </si>
+  <si>
+    <t>offset_B2 + 2</t>
+  </si>
+  <si>
+    <t>0000 0010</t>
+  </si>
+  <si>
+    <t>1000 0010</t>
+  </si>
+  <si>
+    <t>Byte1=0(hex)=0(dec) … desert, no river</t>
+  </si>
+  <si>
+    <t>Byte1=80(hex)=128(dec) … desert, river</t>
+  </si>
+  <si>
+    <t>Byte2=1(hex)=1(dec) … plains, no river</t>
+  </si>
+  <si>
+    <t>Byte2=81(hex)=129(dec) … plains, river</t>
+  </si>
+  <si>
+    <t>Byte3=2(hex)=2(dec) … grassland, no river</t>
+  </si>
+  <si>
+    <t>Byte3=82(hex)=130(dec) … grassland, river</t>
+  </si>
+  <si>
+    <t>offset_B2 + 3</t>
+  </si>
+  <si>
+    <t>1000 0011</t>
+  </si>
+  <si>
+    <t>0000 0011</t>
+  </si>
+  <si>
+    <t>Byte4=3(hex)=3(dec) … forest, no river</t>
+  </si>
+  <si>
+    <t>Byte4=83(hex)=131(dec) … forest, river</t>
+  </si>
+  <si>
+    <t>offset_B2 + 4</t>
+  </si>
+  <si>
+    <t>0000 0100</t>
+  </si>
+  <si>
+    <t>1000 0100</t>
+  </si>
+  <si>
+    <t>Byte5=4(hex)=4(dec) … hills, no river</t>
+  </si>
+  <si>
+    <t>Byte5=84(hex)=132(dec) … hills, river</t>
+  </si>
+  <si>
+    <t>offset_B2 + 5</t>
+  </si>
+  <si>
+    <t>0000 0101</t>
+  </si>
+  <si>
+    <t>1000 0101</t>
+  </si>
+  <si>
+    <t>Byte6=5(hex)=5(dec) … mountains, no river</t>
+  </si>
+  <si>
+    <t>Byte6=85(hex)=133(dec) … mountains, river</t>
+  </si>
+  <si>
+    <t>offset_B2 + 6</t>
+  </si>
+  <si>
+    <t>0000 0110</t>
+  </si>
+  <si>
+    <t>1000 0110</t>
+  </si>
+  <si>
+    <t>Byte7=6(hex)=6(dec) … tundra, no river</t>
+  </si>
+  <si>
+    <t>Byte7=86(hex)=134(dec) … tundra, river</t>
+  </si>
+  <si>
+    <t>offset_B2 + 7</t>
+  </si>
+  <si>
+    <t>0000 0111</t>
+  </si>
+  <si>
+    <t>1000 0111</t>
+  </si>
+  <si>
+    <t>Byte8=87(hex)=135(dec) … glacier, river</t>
+  </si>
+  <si>
+    <t>Byte8=7(hex)=7(dec) … glacier, no river</t>
+  </si>
+  <si>
+    <t>offset_B2 + 8</t>
+  </si>
+  <si>
+    <t>0000 1000</t>
+  </si>
+  <si>
+    <t>1000 1000</t>
+  </si>
+  <si>
+    <t>Byte9=8(hex)=8(dec) … swamp, no river</t>
+  </si>
+  <si>
+    <t>Byte9=88(hex)=136(dec) … swamp, river</t>
+  </si>
+  <si>
+    <t>offset_B2 + 9</t>
+  </si>
+  <si>
+    <t>0000 1001</t>
+  </si>
+  <si>
+    <t>1000 1001</t>
+  </si>
+  <si>
+    <t>Byte10=9(hex)=9(dec) … jungle, no river</t>
+  </si>
+  <si>
+    <t>Byte10=89(hex)=137(dec) … jungle, river</t>
+  </si>
+  <si>
+    <t>offset_B2 + 10</t>
+  </si>
+  <si>
+    <t>0000 1010</t>
+  </si>
+  <si>
+    <t>1000 1010</t>
+  </si>
+  <si>
+    <t>Byte11=A(hex)=10(dec) … ocean, no river</t>
+  </si>
+  <si>
+    <t>Byte11=4A(hex)=74(dec) … ocean, no river</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -691,7 +1053,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -719,6 +1081,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -852,7 +1220,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -888,10 +1256,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -917,7 +1285,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -933,7 +1301,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -943,14 +1311,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Navadno" xfId="0" builtinId="0"/>
@@ -1231,11 +1640,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F122"/>
+  <dimension ref="A1:F168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E46" sqref="E46"/>
+      <pane ySplit="1" topLeftCell="A144" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D164" sqref="D164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2638,7 +3047,580 @@
         <v>203</v>
       </c>
     </row>
+    <row r="123" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A123" s="41" t="s">
+        <v>206</v>
+      </c>
+      <c r="B123" s="45" t="s">
+        <v>228</v>
+      </c>
+      <c r="C123" s="46" t="s">
+        <v>229</v>
+      </c>
+      <c r="D123" s="4"/>
+      <c r="E123" s="47" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A124" s="42"/>
+      <c r="B124" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="C124" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="D124" s="18"/>
+      <c r="E124" s="25" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A125" s="42"/>
+      <c r="B125" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="C125" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="D125" s="7"/>
+      <c r="E125" s="24" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A126" s="42"/>
+      <c r="B126" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="C126" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="D126" s="18"/>
+      <c r="E126" s="25" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A127" s="42"/>
+      <c r="B127" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="D127" s="4"/>
+      <c r="E127" s="27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A128" s="42"/>
+      <c r="B128" s="9"/>
+      <c r="C128" s="10"/>
+      <c r="D128" s="10"/>
+      <c r="E128" s="29" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A129" s="42"/>
+      <c r="B129" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C129" s="43" t="s">
+        <v>220</v>
+      </c>
+      <c r="D129" s="7"/>
+      <c r="E129" s="24" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A130" s="42"/>
+      <c r="B130" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="C130" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="D130" s="18"/>
+      <c r="E130" s="44" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A131" s="42"/>
+      <c r="B131" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="C131" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="D131" s="7"/>
+      <c r="E131" s="40" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A132" s="42"/>
+      <c r="B132" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="D132" s="4"/>
+      <c r="E132" s="48" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A133" s="42"/>
+      <c r="B133" s="28" t="s">
+        <v>236</v>
+      </c>
+      <c r="C133" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="D133" s="7"/>
+      <c r="E133" s="8" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A134" s="42"/>
+      <c r="B134" s="51" t="s">
+        <v>259</v>
+      </c>
+      <c r="C134" s="52"/>
+      <c r="D134" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="E134" s="8" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135" s="42"/>
+      <c r="B135" s="51"/>
+      <c r="C135" s="52"/>
+      <c r="D135" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="E135" s="8" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A136" s="42"/>
+      <c r="B136" s="51"/>
+      <c r="C136" s="52"/>
+      <c r="D136" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="E136" s="8" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A137" s="42"/>
+      <c r="B137" s="51"/>
+      <c r="C137" s="52"/>
+      <c r="D137" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="E137" s="8" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A138" s="42"/>
+      <c r="B138" s="51"/>
+      <c r="C138" s="52"/>
+      <c r="D138" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="E138" s="8" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A139" s="42"/>
+      <c r="B139" s="51"/>
+      <c r="C139" s="52"/>
+      <c r="D139" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="E139" s="8" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A140" s="42"/>
+      <c r="B140" s="51"/>
+      <c r="C140" s="52"/>
+      <c r="D140" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="E140" s="8" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A141" s="42"/>
+      <c r="B141" s="51"/>
+      <c r="C141" s="52"/>
+      <c r="D141" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="E141" s="8" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A142" s="42"/>
+      <c r="B142" s="51"/>
+      <c r="C142" s="52"/>
+      <c r="D142" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="E142" s="8" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A143" s="42"/>
+      <c r="B143" s="51"/>
+      <c r="C143" s="52"/>
+      <c r="D143" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="E143" s="49" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A144" s="42"/>
+      <c r="B144" s="53"/>
+      <c r="C144" s="54"/>
+      <c r="D144" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="E144" s="50" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A145" s="42"/>
+      <c r="B145" s="56" t="s">
+        <v>262</v>
+      </c>
+      <c r="C145" s="4"/>
+      <c r="D145" s="4"/>
+      <c r="E145" s="48" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A146" s="42"/>
+      <c r="B146" s="9"/>
+      <c r="C146" s="10"/>
+      <c r="D146" s="10"/>
+      <c r="E146" s="50" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A147" s="42"/>
+      <c r="B147" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="D147" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="E147" s="55" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A148" s="42"/>
+      <c r="B148" s="6"/>
+      <c r="C148" s="7"/>
+      <c r="D148" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="E148" s="49" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A149" s="42"/>
+      <c r="B149" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="C149" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="D149" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="E149" s="49" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A150" s="42"/>
+      <c r="B150" s="6"/>
+      <c r="C150" s="7"/>
+      <c r="D150" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="E150" s="49" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A151" s="42"/>
+      <c r="B151" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="C151" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="D151" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="E151" s="49" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A152" s="42"/>
+      <c r="B152" s="6"/>
+      <c r="C152" s="7"/>
+      <c r="D152" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="E152" s="49" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A153" s="42"/>
+      <c r="B153" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="C153" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="D153" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="E153" s="49" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A154" s="42"/>
+      <c r="B154" s="6"/>
+      <c r="C154" s="7"/>
+      <c r="D154" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="E154" s="49" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A155" s="42"/>
+      <c r="B155" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="C155" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="D155" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="E155" s="49" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A156" s="42"/>
+      <c r="B156" s="6"/>
+      <c r="C156" s="7"/>
+      <c r="D156" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="E156" s="49" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A157" s="42"/>
+      <c r="B157" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="C157" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="D157" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="E157" s="49" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A158" s="42"/>
+      <c r="B158" s="6"/>
+      <c r="C158" s="7"/>
+      <c r="D158" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="E158" s="49" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A159" s="42"/>
+      <c r="B159" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="C159" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="D159" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="E159" s="49" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A160" s="42"/>
+      <c r="B160" s="6"/>
+      <c r="C160" s="7"/>
+      <c r="D160" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="E160" s="49" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A161" s="42"/>
+      <c r="B161" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="C161" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="D161" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="E161" s="49" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A162" s="42"/>
+      <c r="B162" s="6"/>
+      <c r="C162" s="7"/>
+      <c r="D162" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="E162" s="49" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A163" s="42"/>
+      <c r="B163" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="C163" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="D163" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="E163" s="49" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A164" s="42"/>
+      <c r="B164" s="6"/>
+      <c r="C164" s="7"/>
+      <c r="D164" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="E164" s="49" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A165" s="42"/>
+      <c r="B165" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="C165" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="D165" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="E165" s="49" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A166" s="42"/>
+      <c r="B166" s="6"/>
+      <c r="C166" s="7"/>
+      <c r="D166" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="E166" s="49" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A167" s="42"/>
+      <c r="B167" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="C167" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="D167" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="E167" s="49" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A168" s="42"/>
+      <c r="B168" s="9"/>
+      <c r="C168" s="10"/>
+      <c r="D168" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="E168" s="50" t="s">
+        <v>316</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B134:C144"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/PoskusCiv2/SAVfile.xlsx
+++ b/PoskusCiv2/SAVfile.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milos\source\repos\RTciv2\PoskusCiv2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5870794A-C747-42C3-A721-E9AF90CDB361}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C32AB9F6-9989-4E2F-9F54-4362B6DABFF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="470">
   <si>
     <t>BYTE OFFSET (DEC)</t>
   </si>
@@ -854,24 +854,15 @@
     <t>offset_B2=13702+7*Xdim*Ydim</t>
   </si>
   <si>
-    <t>offset_B2 + 0</t>
-  </si>
-  <si>
     <t>1000 0000</t>
   </si>
   <si>
-    <t>offset_B2 + 1</t>
-  </si>
-  <si>
     <t>0000 0001</t>
   </si>
   <si>
     <t>1000 0001</t>
   </si>
   <si>
-    <t>offset_B2 + 2</t>
-  </si>
-  <si>
     <t>0000 0010</t>
   </si>
   <si>
@@ -896,9 +887,6 @@
     <t>Byte3=82(hex)=130(dec) … grassland, river</t>
   </si>
   <si>
-    <t>offset_B2 + 3</t>
-  </si>
-  <si>
     <t>1000 0011</t>
   </si>
   <si>
@@ -911,9 +899,6 @@
     <t>Byte4=83(hex)=131(dec) … forest, river</t>
   </si>
   <si>
-    <t>offset_B2 + 4</t>
-  </si>
-  <si>
     <t>0000 0100</t>
   </si>
   <si>
@@ -926,9 +911,6 @@
     <t>Byte5=84(hex)=132(dec) … hills, river</t>
   </si>
   <si>
-    <t>offset_B2 + 5</t>
-  </si>
-  <si>
     <t>0000 0101</t>
   </si>
   <si>
@@ -941,9 +923,6 @@
     <t>Byte6=85(hex)=133(dec) … mountains, river</t>
   </si>
   <si>
-    <t>offset_B2 + 6</t>
-  </si>
-  <si>
     <t>0000 0110</t>
   </si>
   <si>
@@ -956,9 +935,6 @@
     <t>Byte7=86(hex)=134(dec) … tundra, river</t>
   </si>
   <si>
-    <t>offset_B2 + 7</t>
-  </si>
-  <si>
     <t>0000 0111</t>
   </si>
   <si>
@@ -971,9 +947,6 @@
     <t>Byte8=7(hex)=7(dec) … glacier, no river</t>
   </si>
   <si>
-    <t>offset_B2 + 8</t>
-  </si>
-  <si>
     <t>0000 1000</t>
   </si>
   <si>
@@ -986,9 +959,6 @@
     <t>Byte9=88(hex)=136(dec) … swamp, river</t>
   </si>
   <si>
-    <t>offset_B2 + 9</t>
-  </si>
-  <si>
     <t>0000 1001</t>
   </si>
   <si>
@@ -1001,9 +971,6 @@
     <t>Byte10=89(hex)=137(dec) … jungle, river</t>
   </si>
   <si>
-    <t>offset_B2 + 10</t>
-  </si>
-  <si>
     <t>0000 1010</t>
   </si>
   <si>
@@ -1014,18 +981,686 @@
   </si>
   <si>
     <t>Byte11=4A(hex)=74(dec) … ocean, no river</t>
+  </si>
+  <si>
+    <t>offset_B2 + 6*i + 0</t>
+  </si>
+  <si>
+    <t>(i=square number)</t>
+  </si>
+  <si>
+    <t>(i=0,1,2,…Xdim*Ydim)</t>
+  </si>
+  <si>
+    <t>offset_B2 + 6*i + 1</t>
+  </si>
+  <si>
+    <t>Same as block 1, except this is for all civs.</t>
+  </si>
+  <si>
+    <t>Map block 2 - CITY RADIUS (BYTE 2)</t>
+  </si>
+  <si>
+    <t>Map block 2 - TILE IMPROVEMENTS (BYTE 1)</t>
+  </si>
+  <si>
+    <t>Map block 2 - TERRAIN TYPE (BYTE 0)</t>
+  </si>
+  <si>
+    <t>TO-DO</t>
+  </si>
+  <si>
+    <t>offset_B2 + 6*i + 2</t>
+  </si>
+  <si>
+    <t>Map block 2 - LAND/SEA COUNTER (BYTE 3)</t>
+  </si>
+  <si>
+    <t>ID (number) of each land/sea mass, islands, lakes, …</t>
+  </si>
+  <si>
+    <t>Map block 2 - VISIBILITY OF SQUARES OF EACH CIV (BYTE 4)</t>
+  </si>
+  <si>
+    <t>offset_B2 + 6*i + 3</t>
+  </si>
+  <si>
+    <t>offset_B2 + 6*i + 4</t>
+  </si>
+  <si>
+    <r>
+      <t>Formula: BYTE = a*2</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + b*2</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + c*2</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + d*2</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + e*2</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + f*2</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + g*2</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + h*2</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7</t>
+    </r>
+  </si>
+  <si>
+    <t>a,b,c,…h = indicators (0/1) whether a civ has explored the tile.</t>
+  </si>
+  <si>
+    <t>a for barbarians, b for 1st civ, c for 2nd civ, …</t>
+  </si>
+  <si>
+    <t>Map block 2 - FERTILITY ??? (BYTE 5)</t>
+  </si>
+  <si>
+    <t>offset_B2 + 6*i + 5</t>
+  </si>
+  <si>
+    <t>Map block 3</t>
+  </si>
+  <si>
+    <t>UNITS</t>
+  </si>
+  <si>
+    <t>offsetB3=offsetB2+6*Xdim*Ydim</t>
+  </si>
+  <si>
+    <t>N198:Q199</t>
+  </si>
+  <si>
+    <t>offsetU=offsetB3+2*(MapXdim*2)/4*MapYdim/4+1024 &lt;--start</t>
+  </si>
+  <si>
+    <t>For each unit in game is reserved:</t>
+  </si>
+  <si>
+    <t>26 (version CiC, FW), 32 (MGE), 40 (ToT) bytes</t>
+  </si>
+  <si>
+    <t>X coord</t>
+  </si>
+  <si>
+    <t>Y coord</t>
+  </si>
+  <si>
+    <t>unit type (from rules.txt, 00=settler, 01=engineer, …)</t>
+  </si>
+  <si>
+    <t>number of hitpoints lost</t>
+  </si>
+  <si>
+    <t>caravan commodity (00=hides, 01=wool, … 0A=uranium, F0 food supply)</t>
+  </si>
+  <si>
+    <t>orders (01=fortify, 02=fortified, 03=sentry, 04=build fortress, 05=build</t>
+  </si>
+  <si>
+    <t>road/railroad, 06=build irrigation, 07=build mine, 08=transform terrain,</t>
+  </si>
+  <si>
+    <t>home city (FF=none)</t>
+  </si>
+  <si>
+    <t>X coord of go-to</t>
+  </si>
+  <si>
+    <t>Y coord of go-to</t>
+  </si>
+  <si>
+    <t>link to IDs of other units to be drawn on same square on top of unit</t>
+  </si>
+  <si>
+    <t>link to IDs of other units to be drawn on same square under the unit</t>
+  </si>
+  <si>
+    <t>offsetU + unitX*reservedBytes + 7</t>
+  </si>
+  <si>
+    <t>offsetU + unitX*reservedBytes + 6</t>
+  </si>
+  <si>
+    <t>offsetU + unitX*reservedBytes + 5</t>
+  </si>
+  <si>
+    <t>offsetU + unitX*reservedBytes + 2-3</t>
+  </si>
+  <si>
+    <t>offsetU + unitX*reservedBytes + 0-1</t>
+  </si>
+  <si>
+    <t>offsetU + unitX*reservedBytes + 10</t>
+  </si>
+  <si>
+    <t>offsetU + unitX*reservedBytes + 13</t>
+  </si>
+  <si>
+    <t>offsetU + unitX*reservedBytes + 15</t>
+  </si>
+  <si>
+    <t>offsetU + unitX*reservedBytes + 16</t>
+  </si>
+  <si>
+    <t>offsetU + unitX*reservedBytes + 18-19</t>
+  </si>
+  <si>
+    <t>offsetU + unitX*reservedBytes + 20-21</t>
+  </si>
+  <si>
+    <t>offsetU + unitX*reservedBytes + 22-23</t>
+  </si>
+  <si>
+    <t>offsetU + unitX*reservedBytes + 24-25</t>
+  </si>
+  <si>
+    <t>offsetU + unitX*reservedBytes + 11</t>
+  </si>
+  <si>
+    <t>owning civilization (00=barbarians)</t>
+  </si>
+  <si>
+    <t>offsetU + unitX*reservedBytes + 8</t>
+  </si>
+  <si>
+    <t>move points expended</t>
+  </si>
+  <si>
+    <t>CITIES</t>
+  </si>
+  <si>
+    <t>offsetC=offsetU + numberOfUnits * numberOfBytesPerUnit</t>
+  </si>
+  <si>
+    <t>offsetC + cityX*reservedBytes + 0-1</t>
+  </si>
+  <si>
+    <t>For each city in game is reserved:</t>
+  </si>
+  <si>
+    <t>84 (version CiC, FW), 88 (MGE), 92 (ToT) bytes</t>
+  </si>
+  <si>
+    <t>X-location</t>
+  </si>
+  <si>
+    <t>offsetC + cityX*reservedBytes + 2-3</t>
+  </si>
+  <si>
+    <t>Y-location</t>
+  </si>
+  <si>
+    <t>offsetC + cityX*reservedBytes + 4</t>
+  </si>
+  <si>
+    <t>can build coastal improvements (0=no/1=yes)</t>
+  </si>
+  <si>
+    <t>veteran status (0=no/1=yes)</t>
+  </si>
+  <si>
+    <t>adds grey start to shield (no apparent function) (0=no/1=yes)</t>
+  </si>
+  <si>
+    <t>stolen tech (0=no/1=yes)</t>
+  </si>
+  <si>
+    <t>improvement sold (0=no/1=yes)</t>
+  </si>
+  <si>
+    <t>"we love the king day" (0=no/1=yes)</t>
+  </si>
+  <si>
+    <t>civil disorder (0=no/1=yes)</t>
+  </si>
+  <si>
+    <t>offsetC + cityX*reservedBytes + 5</t>
+  </si>
+  <si>
+    <t>can build hydro plant (0=no/1=yes)</t>
+  </si>
+  <si>
+    <t>offsetC + cityX*reservedBytes + 6</t>
+  </si>
+  <si>
+    <t>can build ships (only if coastal flag is checked) (0=no/1=yes)</t>
+  </si>
+  <si>
+    <t>offsetC + cityX*reservedBytes + 7</t>
+  </si>
+  <si>
+    <t>denotes objective x3</t>
+  </si>
+  <si>
+    <t>denotes objective x1</t>
+  </si>
+  <si>
+    <t>auto build under domestic advisor (0=no/1=yes)</t>
+  </si>
+  <si>
+    <t>auto build under military advisor (0=no/1=yes)</t>
+  </si>
+  <si>
+    <t>---- --00</t>
+  </si>
+  <si>
+    <t>(both military and domestic flags to 0) to turn on both at same time.</t>
+  </si>
+  <si>
+    <t>Note that these also need byte 5 the auto-build flag to be active.</t>
+  </si>
+  <si>
+    <t>offsetC + cityX*reservedBytes + 8</t>
+  </si>
+  <si>
+    <t>offsetC + cityX*reservedBytes + 9</t>
+  </si>
+  <si>
+    <t>city size (negative size cultivates no squares but produces food)</t>
+  </si>
+  <si>
+    <t>offsetC + cityX*reservedBytes + 10</t>
+  </si>
+  <si>
+    <t>which civ build the city (00…07)</t>
+  </si>
+  <si>
+    <t>city owner civ (00…07)</t>
+  </si>
+  <si>
+    <t>offsetC + cityX*reservedBytes + 15-21</t>
+  </si>
+  <si>
+    <t>working city production squares (??)</t>
+  </si>
+  <si>
+    <t>offsetC + cityX*reservedBytes + 22-25</t>
+  </si>
+  <si>
+    <t>specialists (4 hex positions, 0=none, 1=elvis, 2=tax, 3=sci)</t>
+  </si>
+  <si>
+    <t>example: 06000000, first hex 06=1*4+2: 1 taxman and 1 elvis</t>
+  </si>
+  <si>
+    <t>offsetC + cityX*reservedBytes + 26-27</t>
+  </si>
+  <si>
+    <t>food in food box (FF=famine)</t>
+  </si>
+  <si>
+    <t>offsetC + cityX*reservedBytes + 28-29</t>
+  </si>
+  <si>
+    <t>shields in shield box</t>
+  </si>
+  <si>
+    <t>offsetC + cityX*reservedBytes + 30-31</t>
+  </si>
+  <si>
+    <t>net trade (not including those from trade routes)</t>
+  </si>
+  <si>
+    <t>offsetC + cityX*reservedBytes + 32-46</t>
+  </si>
+  <si>
+    <t>city name (15 characters, ends with 00)</t>
+  </si>
+  <si>
+    <t>offsetC + cityX*reservedBytes + 47</t>
+  </si>
+  <si>
+    <t>00 (because city name cannot exceed 15 characters)</t>
+  </si>
+  <si>
+    <t>offsetC + cityX*reservedBytes + 48</t>
+  </si>
+  <si>
+    <t>workers in inner circle (8 squares next to city square), FF=all worked</t>
+  </si>
+  <si>
+    <t>offsetC + cityX*reservedBytes + 49</t>
+  </si>
+  <si>
+    <t>workers on 8 outer circles</t>
+  </si>
+  <si>
+    <t>offsetC + cityX*reservedBytes + 50</t>
+  </si>
+  <si>
+    <t>workers on 4 outer circles (1st digit always 1, 2nd digit=4 working positions)</t>
+  </si>
+  <si>
+    <t>offsetC + cityX*reservedBytes + 51</t>
+  </si>
+  <si>
+    <t>number of specialists * 4 (e.g. 08 = 2 specialists)</t>
+  </si>
+  <si>
+    <t>offsetC + cityX*reservedBytes + 52-56</t>
+  </si>
+  <si>
+    <t>1st improvement</t>
+  </si>
+  <si>
+    <t>7th improvement</t>
+  </si>
+  <si>
+    <t>6th improvement</t>
+  </si>
+  <si>
+    <t>offsetC + cityX*reservedBytes + 57</t>
+  </si>
+  <si>
+    <t>items in production</t>
+  </si>
+  <si>
+    <t>offsetC + cityX*reservedBytes + 58</t>
+  </si>
+  <si>
+    <t>number of active trade routes (decimal, can also be &gt;03)</t>
+  </si>
+  <si>
+    <t>offsetC + cityX*reservedBytes + 59-61</t>
+  </si>
+  <si>
+    <t>1st, 2nd and 3rd trade commodities available</t>
+  </si>
+  <si>
+    <t>(00-0F) are 1st…15th in rules.txt</t>
+  </si>
+  <si>
+    <t>supplied trade goods (e.g. coal) are inverse values</t>
+  </si>
+  <si>
+    <t>e.g. commodity 13 as already supplied, the value is F3 (-13)</t>
+  </si>
+  <si>
+    <t>in parantheses use FF compliment (can force trade commodity</t>
+  </si>
+  <si>
+    <t>e.g. 0F=uranium, F0=uranium, which is FF-0F</t>
+  </si>
+  <si>
+    <t>1st, 2nd and 3rd trade commodities demanded</t>
+  </si>
+  <si>
+    <t>offsetC + cityX*reservedBytes + 65-67</t>
+  </si>
+  <si>
+    <t>offsetC + cityX*reservedBytes + 62-64</t>
+  </si>
+  <si>
+    <t>1st, 2nd and 3rd trade commodities in route</t>
+  </si>
+  <si>
+    <t>offsetC + cityX*reservedBytes + 68-73</t>
+  </si>
+  <si>
+    <t>1st, 2nd and 3rd trade route partner city number</t>
+  </si>
+  <si>
+    <t>offsetC + cityX*reservedBytes + 74-75</t>
+  </si>
+  <si>
+    <t>science</t>
+  </si>
+  <si>
+    <t>offsetC + cityX*reservedBytes + 76-77</t>
+  </si>
+  <si>
+    <t>tax</t>
+  </si>
+  <si>
+    <t>offsetC + cityX*reservedBytes + 78-79</t>
+  </si>
+  <si>
+    <t>number of trade icons (including trade routes)</t>
+  </si>
+  <si>
+    <t>offsetC + cityX*reservedBytes + 80</t>
+  </si>
+  <si>
+    <t>total food production</t>
+  </si>
+  <si>
+    <t>offsetC + cityX*reservedBytes + 81</t>
+  </si>
+  <si>
+    <t>total shield production</t>
+  </si>
+  <si>
+    <t>offsetC + cityX*reservedBytes + 82</t>
+  </si>
+  <si>
+    <t>number of happy citizens</t>
+  </si>
+  <si>
+    <t>offsetC + cityX*reservedBytes + 83</t>
+  </si>
+  <si>
+    <t>number of unhappy citizens (double unhappy count twice?)</t>
+  </si>
+  <si>
+    <t>autobuild under military rule (0=no/1=yes)</t>
+  </si>
+  <si>
+    <t>OTHER INFO</t>
+  </si>
+  <si>
+    <t>3 bytes for Romans, 3 for Babylonians, … (for all 7 civs)</t>
+  </si>
+  <si>
+    <t>offsetO + 3*civX + 0</t>
+  </si>
+  <si>
+    <t>No. of cities civ X has built so far (used to pick up city name in CITIES.TXT)</t>
+  </si>
+  <si>
+    <t>offsetO + 3*civX + 1</t>
+  </si>
+  <si>
+    <t>offsetO + 3*civX + 2</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>X cursor position.</t>
+  </si>
+  <si>
+    <t>Y cursor position.</t>
+  </si>
+  <si>
+    <t>offsetO = offsetC + noCities*reservedBytes</t>
+  </si>
+  <si>
+    <t>offsetO + 3*civ + 0-2 …. Civ = 0,1,2,…6</t>
+  </si>
+  <si>
+    <t>offsetO + 63-64</t>
+  </si>
+  <si>
+    <t>offsetO + 65-66</t>
+  </si>
+  <si>
+    <t>previous move (FF=no move, 00=up-right, 01=right, 02=down-right…,07=up )</t>
+  </si>
+  <si>
+    <t>09=cleans up pollution, 10=build airbase, 11=go-to, 255(FF)=no orders</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1052,8 +1687,41 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1087,6 +1755,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF66FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFF66"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66FFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1220,7 +1906,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1256,10 +1942,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1285,7 +1971,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1301,7 +1987,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -1311,18 +1997,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
@@ -1338,12 +2024,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1356,16 +2081,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Navadno" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF66FFFF"/>
+      <color rgb="FFFF66FF"/>
+      <color rgb="FFCCFF66"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1640,11 +2368,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F168"/>
+  <dimension ref="A1:N282"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A144" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D164" sqref="D164"/>
+      <pane ySplit="1" topLeftCell="A199" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E216" sqref="E216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3190,10 +3918,10 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" s="42"/>
-      <c r="B134" s="51" t="s">
+      <c r="B134" s="70" t="s">
         <v>259</v>
       </c>
-      <c r="C134" s="52"/>
+      <c r="C134" s="71"/>
       <c r="D134" s="7" t="s">
         <v>233</v>
       </c>
@@ -3203,8 +3931,8 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" s="42"/>
-      <c r="B135" s="51"/>
-      <c r="C135" s="52"/>
+      <c r="B135" s="70"/>
+      <c r="C135" s="71"/>
       <c r="D135" s="14" t="s">
         <v>239</v>
       </c>
@@ -3214,8 +3942,8 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" s="42"/>
-      <c r="B136" s="51"/>
-      <c r="C136" s="52"/>
+      <c r="B136" s="70"/>
+      <c r="C136" s="71"/>
       <c r="D136" s="14" t="s">
         <v>241</v>
       </c>
@@ -3225,8 +3953,8 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" s="42"/>
-      <c r="B137" s="51"/>
-      <c r="C137" s="52"/>
+      <c r="B137" s="70"/>
+      <c r="C137" s="71"/>
       <c r="D137" s="14" t="s">
         <v>243</v>
       </c>
@@ -3236,8 +3964,8 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" s="42"/>
-      <c r="B138" s="51"/>
-      <c r="C138" s="52"/>
+      <c r="B138" s="70"/>
+      <c r="C138" s="71"/>
       <c r="D138" s="14" t="s">
         <v>245</v>
       </c>
@@ -3247,8 +3975,8 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" s="42"/>
-      <c r="B139" s="51"/>
-      <c r="C139" s="52"/>
+      <c r="B139" s="70"/>
+      <c r="C139" s="71"/>
       <c r="D139" s="14" t="s">
         <v>247</v>
       </c>
@@ -3258,8 +3986,8 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" s="42"/>
-      <c r="B140" s="51"/>
-      <c r="C140" s="52"/>
+      <c r="B140" s="70"/>
+      <c r="C140" s="71"/>
       <c r="D140" s="14" t="s">
         <v>256</v>
       </c>
@@ -3269,8 +3997,8 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" s="42"/>
-      <c r="B141" s="51"/>
-      <c r="C141" s="52"/>
+      <c r="B141" s="70"/>
+      <c r="C141" s="71"/>
       <c r="D141" s="14" t="s">
         <v>250</v>
       </c>
@@ -3280,8 +4008,8 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" s="42"/>
-      <c r="B142" s="51"/>
-      <c r="C142" s="52"/>
+      <c r="B142" s="70"/>
+      <c r="C142" s="71"/>
       <c r="D142" s="14" t="s">
         <v>252</v>
       </c>
@@ -3291,8 +4019,8 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" s="42"/>
-      <c r="B143" s="51"/>
-      <c r="C143" s="52"/>
+      <c r="B143" s="70"/>
+      <c r="C143" s="71"/>
       <c r="D143" s="14" t="s">
         <v>255</v>
       </c>
@@ -3302,8 +4030,8 @@
     </row>
     <row r="144" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" s="42"/>
-      <c r="B144" s="53"/>
-      <c r="C144" s="54"/>
+      <c r="B144" s="72"/>
+      <c r="C144" s="73"/>
       <c r="D144" s="12" t="s">
         <v>257</v>
       </c>
@@ -3313,7 +4041,7 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" s="42"/>
-      <c r="B145" s="56" t="s">
+      <c r="B145" s="51" t="s">
         <v>262</v>
       </c>
       <c r="C145" s="4"/>
@@ -3333,69 +4061,63 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" s="42"/>
-      <c r="B147" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="C147" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="D147" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="E147" s="55" t="s">
-        <v>271</v>
+      <c r="B147" s="3"/>
+      <c r="C147" s="4"/>
+      <c r="D147" s="4"/>
+      <c r="E147" s="52" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" s="42"/>
-      <c r="B148" s="6"/>
-      <c r="C148" s="7"/>
+      <c r="B148" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="C148" s="7" t="s">
+        <v>306</v>
+      </c>
       <c r="D148" s="7" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="E148" s="49" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" s="42"/>
       <c r="B149" s="6" t="s">
-        <v>265</v>
-      </c>
-      <c r="C149" s="7" t="s">
-        <v>265</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="C149" s="7"/>
       <c r="D149" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="E149" s="49" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" s="42"/>
-      <c r="B150" s="6"/>
+      <c r="B150" s="6" t="s">
+        <v>308</v>
+      </c>
       <c r="C150" s="7"/>
       <c r="D150" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E150" s="49" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" s="42"/>
-      <c r="B151" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="C151" s="7" t="s">
-        <v>268</v>
-      </c>
+      <c r="B151" s="6"/>
+      <c r="C151" s="7"/>
       <c r="D151" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="E151" s="49" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.3">
@@ -3403,25 +4125,21 @@
       <c r="B152" s="6"/>
       <c r="C152" s="7"/>
       <c r="D152" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E152" s="49" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" s="42"/>
-      <c r="B153" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="C153" s="7" t="s">
-        <v>277</v>
-      </c>
+      <c r="B153" s="6"/>
+      <c r="C153" s="7"/>
       <c r="D153" s="7" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="E153" s="49" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.3">
@@ -3429,25 +4147,21 @@
       <c r="B154" s="6"/>
       <c r="C154" s="7"/>
       <c r="D154" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E154" s="49" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" s="42"/>
-      <c r="B155" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="C155" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="B155" s="6"/>
+      <c r="C155" s="7"/>
       <c r="D155" s="7" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="E155" s="49" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.3">
@@ -3455,25 +4169,21 @@
       <c r="B156" s="6"/>
       <c r="C156" s="7"/>
       <c r="D156" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="E156" s="49" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" s="42"/>
-      <c r="B157" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="C157" s="7" t="s">
-        <v>287</v>
-      </c>
+      <c r="B157" s="6"/>
+      <c r="C157" s="7"/>
       <c r="D157" s="7" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="E157" s="49" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.3">
@@ -3481,25 +4191,21 @@
       <c r="B158" s="6"/>
       <c r="C158" s="7"/>
       <c r="D158" s="7" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="E158" s="49" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" s="42"/>
-      <c r="B159" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="C159" s="7" t="s">
-        <v>292</v>
-      </c>
+      <c r="B159" s="6"/>
+      <c r="C159" s="7"/>
       <c r="D159" s="7" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="E159" s="49" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.3">
@@ -3507,25 +4213,21 @@
       <c r="B160" s="6"/>
       <c r="C160" s="7"/>
       <c r="D160" s="7" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="E160" s="49" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" s="42"/>
-      <c r="B161" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="C161" s="7" t="s">
-        <v>297</v>
-      </c>
+      <c r="B161" s="6"/>
+      <c r="C161" s="7"/>
       <c r="D161" s="7" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="E161" s="49" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.3">
@@ -3533,25 +4235,21 @@
       <c r="B162" s="6"/>
       <c r="C162" s="7"/>
       <c r="D162" s="7" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="E162" s="49" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" s="42"/>
-      <c r="B163" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="C163" s="7" t="s">
-        <v>302</v>
-      </c>
+      <c r="B163" s="6"/>
+      <c r="C163" s="7"/>
       <c r="D163" s="7" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="E163" s="49" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.3">
@@ -3559,25 +4257,21 @@
       <c r="B164" s="6"/>
       <c r="C164" s="7"/>
       <c r="D164" s="7" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="E164" s="49" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" s="42"/>
-      <c r="B165" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="C165" s="7" t="s">
-        <v>307</v>
-      </c>
+      <c r="B165" s="6"/>
+      <c r="C165" s="7"/>
       <c r="D165" s="7" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="E165" s="49" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.3">
@@ -3585,36 +4279,1271 @@
       <c r="B166" s="6"/>
       <c r="C166" s="7"/>
       <c r="D166" s="7" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="E166" s="49" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" s="42"/>
-      <c r="B167" s="6" t="s">
+      <c r="B167" s="6"/>
+      <c r="C167" s="7"/>
+      <c r="D167" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="E167" s="49" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A168" s="42"/>
+      <c r="B168" s="6"/>
+      <c r="C168" s="7"/>
+      <c r="D168" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="E168" s="49" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A169" s="42"/>
+      <c r="B169" s="9"/>
+      <c r="C169" s="10"/>
+      <c r="D169" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="E169" s="50" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A170" s="42"/>
+      <c r="B170" s="3"/>
+      <c r="C170" s="4"/>
+      <c r="D170" s="4"/>
+      <c r="E170" s="52" t="s">
         <v>312</v>
       </c>
-      <c r="C167" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="D167" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="E167" s="49" t="s">
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A171" s="42"/>
+      <c r="B171" s="6"/>
+      <c r="C171" s="7"/>
+      <c r="D171" s="7"/>
+      <c r="E171" s="49" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A172" s="42"/>
+      <c r="B172" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="C172" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="D172" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="E172" s="8" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A173" s="42"/>
+      <c r="B173" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="C173" s="7"/>
+      <c r="D173" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="E173" s="8" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A174" s="42"/>
+      <c r="B174" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="C174" s="7"/>
+      <c r="D174" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="E174" s="8" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A175" s="42"/>
+      <c r="B175" s="6"/>
+      <c r="C175" s="7"/>
+      <c r="D175" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="E175" s="8" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A176" s="42"/>
+      <c r="B176" s="6"/>
+      <c r="C176" s="7"/>
+      <c r="D176" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="E176" s="8" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A177" s="42"/>
+      <c r="B177" s="6"/>
+      <c r="C177" s="7"/>
+      <c r="D177" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="E177" s="8" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A178" s="42"/>
+      <c r="B178" s="6"/>
+      <c r="C178" s="7"/>
+      <c r="D178" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="E178" s="8" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A179" s="42"/>
+      <c r="B179" s="6"/>
+      <c r="C179" s="7"/>
+      <c r="D179" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="E179" s="8" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A180" s="42"/>
+      <c r="B180" s="6"/>
+      <c r="C180" s="7"/>
+      <c r="D180" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="E180" s="8" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A181" s="42"/>
+      <c r="B181" s="6"/>
+      <c r="C181" s="7"/>
+      <c r="D181" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="E181" s="49" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A182" s="42"/>
+      <c r="B182" s="9"/>
+      <c r="C182" s="10"/>
+      <c r="D182" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="E182" s="50" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A183" s="42"/>
+      <c r="B183" s="3"/>
+      <c r="C183" s="4"/>
+      <c r="D183" s="4"/>
+      <c r="E183" s="52" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A184" s="42"/>
+      <c r="B184" s="6" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A168" s="42"/>
-      <c r="B168" s="9"/>
-      <c r="C168" s="10"/>
-      <c r="D168" s="10" t="s">
+      <c r="C184" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="D184" s="7"/>
+      <c r="E184" s="53" t="s">
         <v>314</v>
       </c>
-      <c r="E168" s="50" t="s">
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A185" s="42"/>
+      <c r="B185" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="C185" s="7"/>
+      <c r="D185" s="7"/>
+      <c r="E185" s="8"/>
+    </row>
+    <row r="186" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A186" s="42"/>
+      <c r="B186" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="C186" s="10"/>
+      <c r="D186" s="10"/>
+      <c r="E186" s="11"/>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A187" s="42"/>
+      <c r="B187" s="3"/>
+      <c r="C187" s="4"/>
+      <c r="D187" s="4"/>
+      <c r="E187" s="52" t="s">
         <v>316</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A188" s="42"/>
+      <c r="B188" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="C188" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="D188" s="7"/>
+      <c r="E188" s="54" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A189" s="42"/>
+      <c r="B189" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="C189" s="7"/>
+      <c r="D189" s="7"/>
+      <c r="E189" s="8"/>
+    </row>
+    <row r="190" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A190" s="42"/>
+      <c r="B190" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="C190" s="10"/>
+      <c r="D190" s="10"/>
+      <c r="E190" s="11"/>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A191" s="42"/>
+      <c r="B191" s="3"/>
+      <c r="C191" s="4"/>
+      <c r="D191" s="4"/>
+      <c r="E191" s="52" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A192" s="42"/>
+      <c r="B192" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="C192" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="D192" s="7"/>
+      <c r="E192" s="8" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="193" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A193" s="42"/>
+      <c r="B193" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="C193" s="7"/>
+      <c r="D193" s="7"/>
+      <c r="E193" s="49" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="194" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A194" s="42"/>
+      <c r="B194" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="C194" s="10"/>
+      <c r="D194" s="10"/>
+      <c r="E194" s="11" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="195" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A195" s="42"/>
+      <c r="B195" s="3"/>
+      <c r="C195" s="4"/>
+      <c r="D195" s="4"/>
+      <c r="E195" s="52" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="196" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A196" s="42"/>
+      <c r="B196" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="C196" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="D196" s="7"/>
+      <c r="E196" s="53" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="197" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A197" s="42"/>
+      <c r="B197" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="C197" s="7"/>
+      <c r="D197" s="7"/>
+      <c r="E197" s="8"/>
+    </row>
+    <row r="198" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A198" s="42"/>
+      <c r="B198" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="C198" s="10"/>
+      <c r="D198" s="10"/>
+      <c r="E198" s="11"/>
+    </row>
+    <row r="199" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A199" s="42"/>
+      <c r="B199" s="51" t="s">
+        <v>328</v>
+      </c>
+      <c r="C199" s="4"/>
+      <c r="D199" s="4"/>
+      <c r="E199" s="48" t="s">
+        <v>326</v>
+      </c>
+      <c r="N199" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="200" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A200" s="42"/>
+      <c r="B200" s="9"/>
+      <c r="C200" s="10"/>
+      <c r="D200" s="10"/>
+      <c r="E200" s="55" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="201" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A201" s="56" t="s">
+        <v>327</v>
+      </c>
+      <c r="B201" s="51" t="s">
+        <v>330</v>
+      </c>
+      <c r="C201" s="4"/>
+      <c r="D201" s="4"/>
+      <c r="E201" s="5" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="202" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A202" s="57"/>
+      <c r="B202" s="58"/>
+      <c r="C202" s="10"/>
+      <c r="D202" s="10"/>
+      <c r="E202" s="11" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="203" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A203" s="57"/>
+      <c r="B203" s="59" t="s">
+        <v>349</v>
+      </c>
+      <c r="C203" s="18"/>
+      <c r="D203" s="18"/>
+      <c r="E203" s="21" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="204" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A204" s="57"/>
+      <c r="B204" s="59" t="s">
+        <v>348</v>
+      </c>
+      <c r="C204" s="18"/>
+      <c r="D204" s="18"/>
+      <c r="E204" s="21" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="205" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A205" s="57"/>
+      <c r="B205" s="51" t="s">
+        <v>347</v>
+      </c>
+      <c r="C205" s="4"/>
+      <c r="D205" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E205" s="5" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="206" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A206" s="57"/>
+      <c r="B206" s="9"/>
+      <c r="C206" s="10"/>
+      <c r="D206" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E206" s="11" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="207" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A207" s="57"/>
+      <c r="B207" s="59" t="s">
+        <v>346</v>
+      </c>
+      <c r="C207" s="18"/>
+      <c r="D207" s="18"/>
+      <c r="E207" s="21" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="208" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A208" s="57"/>
+      <c r="B208" s="59" t="s">
+        <v>345</v>
+      </c>
+      <c r="C208" s="18"/>
+      <c r="D208" s="18"/>
+      <c r="E208" s="21" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A209" s="57"/>
+      <c r="B209" s="59" t="s">
+        <v>360</v>
+      </c>
+      <c r="C209" s="18"/>
+      <c r="D209" s="18"/>
+      <c r="E209" s="21" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A210" s="57"/>
+      <c r="B210" s="59" t="s">
+        <v>350</v>
+      </c>
+      <c r="C210" s="18"/>
+      <c r="D210" s="18"/>
+      <c r="E210" s="21" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A211" s="57"/>
+      <c r="B211" s="59" t="s">
+        <v>358</v>
+      </c>
+      <c r="C211" s="18"/>
+      <c r="D211" s="18"/>
+      <c r="E211" s="21" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A212" s="57"/>
+      <c r="B212" s="59" t="s">
+        <v>351</v>
+      </c>
+      <c r="C212" s="18"/>
+      <c r="D212" s="18"/>
+      <c r="E212" s="21" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A213" s="57"/>
+      <c r="B213" s="51" t="s">
+        <v>352</v>
+      </c>
+      <c r="C213" s="4"/>
+      <c r="D213" s="4"/>
+      <c r="E213" s="5" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A214" s="57"/>
+      <c r="B214" s="60"/>
+      <c r="C214" s="7"/>
+      <c r="D214" s="7"/>
+      <c r="E214" s="8" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A215" s="57"/>
+      <c r="B215" s="58"/>
+      <c r="C215" s="10"/>
+      <c r="D215" s="10"/>
+      <c r="E215" s="11" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A216" s="57"/>
+      <c r="B216" s="59" t="s">
+        <v>353</v>
+      </c>
+      <c r="C216" s="18"/>
+      <c r="D216" s="18"/>
+      <c r="E216" s="21" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A217" s="57"/>
+      <c r="B217" s="59" t="s">
+        <v>354</v>
+      </c>
+      <c r="C217" s="18"/>
+      <c r="D217" s="18"/>
+      <c r="E217" s="21" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A218" s="57"/>
+      <c r="B218" s="59" t="s">
+        <v>355</v>
+      </c>
+      <c r="C218" s="18"/>
+      <c r="D218" s="18"/>
+      <c r="E218" s="21" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A219" s="57"/>
+      <c r="B219" s="59" t="s">
+        <v>356</v>
+      </c>
+      <c r="C219" s="18"/>
+      <c r="D219" s="18"/>
+      <c r="E219" s="21" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A220" s="57"/>
+      <c r="B220" s="59" t="s">
+        <v>357</v>
+      </c>
+      <c r="C220" s="18"/>
+      <c r="D220" s="18"/>
+      <c r="E220" s="21" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A221" s="61" t="s">
+        <v>362</v>
+      </c>
+      <c r="B221" s="51" t="s">
+        <v>363</v>
+      </c>
+      <c r="C221" s="4"/>
+      <c r="D221" s="4"/>
+      <c r="E221" s="5" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A222" s="62"/>
+      <c r="B222" s="9"/>
+      <c r="C222" s="10"/>
+      <c r="D222" s="10"/>
+      <c r="E222" s="11" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A223" s="62"/>
+      <c r="B223" s="59" t="s">
+        <v>364</v>
+      </c>
+      <c r="C223" s="18"/>
+      <c r="D223" s="18"/>
+      <c r="E223" s="20" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A224" s="62"/>
+      <c r="B224" s="59" t="s">
+        <v>368</v>
+      </c>
+      <c r="C224" s="18"/>
+      <c r="D224" s="18"/>
+      <c r="E224" s="20" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A225" s="62"/>
+      <c r="B225" s="51" t="s">
+        <v>370</v>
+      </c>
+      <c r="C225" s="4"/>
+      <c r="D225" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E225" s="63" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A226" s="62"/>
+      <c r="B226" s="6"/>
+      <c r="C226" s="7"/>
+      <c r="D226" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E226" s="49" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A227" s="62"/>
+      <c r="B227" s="6"/>
+      <c r="C227" s="7"/>
+      <c r="D227" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E227" s="49" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A228" s="62"/>
+      <c r="B228" s="6"/>
+      <c r="C228" s="7"/>
+      <c r="D228" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E228" s="49" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A229" s="62"/>
+      <c r="B229" s="6"/>
+      <c r="C229" s="7"/>
+      <c r="D229" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E229" s="49" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A230" s="62"/>
+      <c r="B230" s="9"/>
+      <c r="C230" s="10"/>
+      <c r="D230" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E230" s="50" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A231" s="62"/>
+      <c r="B231" s="59" t="s">
+        <v>378</v>
+      </c>
+      <c r="C231" s="18"/>
+      <c r="D231" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="E231" s="20" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A232" s="62"/>
+      <c r="B232" s="59" t="s">
+        <v>380</v>
+      </c>
+      <c r="C232" s="18"/>
+      <c r="D232" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="E232" s="20" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A233" s="62"/>
+      <c r="B233" s="51" t="s">
+        <v>382</v>
+      </c>
+      <c r="C233" s="4"/>
+      <c r="D233" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="E233" s="63" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A234" s="62"/>
+      <c r="B234" s="6"/>
+      <c r="C234" s="7"/>
+      <c r="D234" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="E234" s="49" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A235" s="62"/>
+      <c r="B235" s="6"/>
+      <c r="C235" s="7"/>
+      <c r="D235" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E235" s="49" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A236" s="62"/>
+      <c r="B236" s="6"/>
+      <c r="C236" s="7"/>
+      <c r="D236" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E236" s="49" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A237" s="62"/>
+      <c r="B237" s="6"/>
+      <c r="C237" s="7"/>
+      <c r="D237" s="14" t="s">
+        <v>387</v>
+      </c>
+      <c r="E237" s="65" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A238" s="62"/>
+      <c r="B238" s="9"/>
+      <c r="C238" s="10"/>
+      <c r="D238" s="10"/>
+      <c r="E238" s="66" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A239" s="62"/>
+      <c r="B239" s="59" t="s">
+        <v>390</v>
+      </c>
+      <c r="C239" s="18"/>
+      <c r="D239" s="18"/>
+      <c r="E239" s="67" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A240" s="62"/>
+      <c r="B240" s="59" t="s">
+        <v>391</v>
+      </c>
+      <c r="C240" s="18"/>
+      <c r="D240" s="18"/>
+      <c r="E240" s="21" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A241" s="62"/>
+      <c r="B241" s="59" t="s">
+        <v>393</v>
+      </c>
+      <c r="C241" s="18"/>
+      <c r="D241" s="18"/>
+      <c r="E241" s="21" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A242" s="62"/>
+      <c r="B242" s="59" t="s">
+        <v>396</v>
+      </c>
+      <c r="C242" s="18"/>
+      <c r="D242" s="18"/>
+      <c r="E242" s="21" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A243" s="62"/>
+      <c r="B243" s="51" t="s">
+        <v>398</v>
+      </c>
+      <c r="C243" s="4"/>
+      <c r="D243" s="4"/>
+      <c r="E243" s="5" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A244" s="62"/>
+      <c r="B244" s="9"/>
+      <c r="C244" s="10"/>
+      <c r="D244" s="10"/>
+      <c r="E244" s="11" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A245" s="62"/>
+      <c r="B245" s="59" t="s">
+        <v>401</v>
+      </c>
+      <c r="C245" s="18"/>
+      <c r="D245" s="18"/>
+      <c r="E245" s="21" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A246" s="62"/>
+      <c r="B246" s="59" t="s">
+        <v>403</v>
+      </c>
+      <c r="C246" s="18"/>
+      <c r="D246" s="18"/>
+      <c r="E246" s="21" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A247" s="62"/>
+      <c r="B247" s="59" t="s">
+        <v>405</v>
+      </c>
+      <c r="C247" s="18"/>
+      <c r="D247" s="18"/>
+      <c r="E247" s="21" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A248" s="62"/>
+      <c r="B248" s="59" t="s">
+        <v>407</v>
+      </c>
+      <c r="C248" s="18"/>
+      <c r="D248" s="18"/>
+      <c r="E248" s="21" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A249" s="62"/>
+      <c r="B249" s="59" t="s">
+        <v>409</v>
+      </c>
+      <c r="C249" s="18"/>
+      <c r="D249" s="18"/>
+      <c r="E249" s="21" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A250" s="62"/>
+      <c r="B250" s="59" t="s">
+        <v>411</v>
+      </c>
+      <c r="C250" s="18"/>
+      <c r="D250" s="18"/>
+      <c r="E250" s="21" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A251" s="62"/>
+      <c r="B251" s="59" t="s">
+        <v>413</v>
+      </c>
+      <c r="C251" s="18"/>
+      <c r="D251" s="18"/>
+      <c r="E251" s="21" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A252" s="62"/>
+      <c r="B252" s="59" t="s">
+        <v>415</v>
+      </c>
+      <c r="C252" s="18"/>
+      <c r="D252" s="18"/>
+      <c r="E252" s="21" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A253" s="62"/>
+      <c r="B253" s="59" t="s">
+        <v>417</v>
+      </c>
+      <c r="C253" s="18"/>
+      <c r="D253" s="18"/>
+      <c r="E253" s="21" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A254" s="62"/>
+      <c r="B254" s="51" t="s">
+        <v>419</v>
+      </c>
+      <c r="C254" s="4"/>
+      <c r="D254" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="E254" s="5" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A255" s="62"/>
+      <c r="B255" s="6"/>
+      <c r="C255" s="7"/>
+      <c r="D255" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="E255" s="8" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A256" s="62"/>
+      <c r="B256" s="6"/>
+      <c r="C256" s="7"/>
+      <c r="D256" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="E256" s="8"/>
+    </row>
+    <row r="257" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A257" s="62"/>
+      <c r="B257" s="9"/>
+      <c r="C257" s="10"/>
+      <c r="D257" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="E257" s="11" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A258" s="62"/>
+      <c r="B258" s="59" t="s">
+        <v>423</v>
+      </c>
+      <c r="C258" s="18"/>
+      <c r="D258" s="18"/>
+      <c r="E258" s="21" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A259" s="62"/>
+      <c r="B259" s="59" t="s">
+        <v>425</v>
+      </c>
+      <c r="C259" s="18"/>
+      <c r="D259" s="18"/>
+      <c r="E259" s="21" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A260" s="62"/>
+      <c r="B260" s="51" t="s">
+        <v>427</v>
+      </c>
+      <c r="C260" s="4"/>
+      <c r="D260" s="4"/>
+      <c r="E260" s="5" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A261" s="62"/>
+      <c r="B261" s="6"/>
+      <c r="C261" s="7"/>
+      <c r="D261" s="7"/>
+      <c r="E261" s="8" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A262" s="62"/>
+      <c r="B262" s="6"/>
+      <c r="C262" s="7"/>
+      <c r="D262" s="7"/>
+      <c r="E262" s="8" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A263" s="62"/>
+      <c r="B263" s="6"/>
+      <c r="C263" s="7"/>
+      <c r="D263" s="7"/>
+      <c r="E263" s="8" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A264" s="62"/>
+      <c r="B264" s="6"/>
+      <c r="C264" s="7"/>
+      <c r="D264" s="7"/>
+      <c r="E264" s="8" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A265" s="62"/>
+      <c r="B265" s="9"/>
+      <c r="C265" s="10"/>
+      <c r="D265" s="10"/>
+      <c r="E265" s="11" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A266" s="62"/>
+      <c r="B266" s="59" t="s">
+        <v>436</v>
+      </c>
+      <c r="C266" s="18"/>
+      <c r="D266" s="18"/>
+      <c r="E266" s="21" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A267" s="62"/>
+      <c r="B267" s="59" t="s">
+        <v>435</v>
+      </c>
+      <c r="C267" s="18"/>
+      <c r="D267" s="18"/>
+      <c r="E267" s="21" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A268" s="62"/>
+      <c r="B268" s="59" t="s">
+        <v>438</v>
+      </c>
+      <c r="C268" s="18"/>
+      <c r="D268" s="18"/>
+      <c r="E268" s="21" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A269" s="62"/>
+      <c r="B269" s="59" t="s">
+        <v>440</v>
+      </c>
+      <c r="C269" s="18"/>
+      <c r="D269" s="18"/>
+      <c r="E269" s="21" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A270" s="62"/>
+      <c r="B270" s="59" t="s">
+        <v>442</v>
+      </c>
+      <c r="C270" s="18"/>
+      <c r="D270" s="18"/>
+      <c r="E270" s="21" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A271" s="62"/>
+      <c r="B271" s="59" t="s">
+        <v>444</v>
+      </c>
+      <c r="C271" s="18"/>
+      <c r="D271" s="18"/>
+      <c r="E271" s="21" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A272" s="62"/>
+      <c r="B272" s="59" t="s">
+        <v>446</v>
+      </c>
+      <c r="C272" s="18"/>
+      <c r="D272" s="18"/>
+      <c r="E272" s="21" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A273" s="62"/>
+      <c r="B273" s="59" t="s">
+        <v>448</v>
+      </c>
+      <c r="C273" s="18"/>
+      <c r="D273" s="18"/>
+      <c r="E273" s="21" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A274" s="62"/>
+      <c r="B274" s="59" t="s">
+        <v>450</v>
+      </c>
+      <c r="C274" s="18"/>
+      <c r="D274" s="18"/>
+      <c r="E274" s="21" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A275" s="62"/>
+      <c r="B275" s="59" t="s">
+        <v>452</v>
+      </c>
+      <c r="C275" s="18"/>
+      <c r="D275" s="18"/>
+      <c r="E275" s="21" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A276" s="68" t="s">
+        <v>455</v>
+      </c>
+      <c r="B276" s="51" t="s">
+        <v>464</v>
+      </c>
+      <c r="C276" s="4"/>
+      <c r="D276" s="4"/>
+      <c r="E276" s="5"/>
+    </row>
+    <row r="277" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A277" s="69"/>
+      <c r="B277" s="58" t="s">
+        <v>465</v>
+      </c>
+      <c r="C277" s="10"/>
+      <c r="D277" s="10"/>
+      <c r="E277" s="11" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A278" s="69"/>
+      <c r="B278" s="17" t="s">
+        <v>457</v>
+      </c>
+      <c r="C278" s="18"/>
+      <c r="D278" s="18"/>
+      <c r="E278" s="21" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A279" s="69"/>
+      <c r="B279" s="17" t="s">
+        <v>459</v>
+      </c>
+      <c r="C279" s="18"/>
+      <c r="D279" s="18"/>
+      <c r="E279" s="21" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A280" s="69"/>
+      <c r="B280" s="17" t="s">
+        <v>460</v>
+      </c>
+      <c r="C280" s="18"/>
+      <c r="D280" s="18"/>
+      <c r="E280" s="21" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A281" s="69"/>
+      <c r="B281" s="17" t="s">
+        <v>466</v>
+      </c>
+      <c r="C281" s="18"/>
+      <c r="D281" s="18"/>
+      <c r="E281" s="21" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A282" s="69"/>
+      <c r="B282" s="17" t="s">
+        <v>467</v>
+      </c>
+      <c r="C282" s="18"/>
+      <c r="D282" s="18"/>
+      <c r="E282" s="21" t="s">
+        <v>463</v>
       </c>
     </row>
   </sheetData>

--- a/PoskusCiv2/SAVfile.xlsx
+++ b/PoskusCiv2/SAVfile.xlsx
@@ -1,39 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milos\source\repos\RTciv2\PoskusCiv2\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C32AB9F6-9989-4E2F-9F54-4362B6DABFF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="114210"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="475">
   <si>
     <t>BYTE OFFSET (DEC)</t>
   </si>
@@ -243,12 +224,6 @@
   </si>
   <si>
     <t>eg. 0110 0100 means: human is playing as civ 1, 2 and 5.</t>
-  </si>
-  <si>
-    <t>Amount of current pollution. 7F is maximum, and will certainly cause global
-temperature rising at the end of the turn. A value of 80 till FF is a negative
-amount (still shows the icon for global rising), but it will be reset to 00 at the
-end of the turn.</t>
   </si>
   <si>
     <t>Amount of times that a global temperature rising has been happening this far in the game. 7F is maximum and will make the whole world a big swamp when the next global temperature rising occurs. 80 or higher will prevent any global rising from happening at all. At the moment when terrain should be changed, nothing happens, and byte 32 is restored to 00, though a message still pops up. Byte 33 will remain at what it was, so it is not reset.
@@ -553,9 +528,6 @@
   </si>
   <si>
     <t>Block N offset + 20</t>
-  </si>
-  <si>
-    <t>Percentages to tax, science and luxuries</t>
   </si>
   <si>
     <t>Block N offset + 21</t>
@@ -738,11 +710,10 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="238"/>
-        <scheme val="minor"/>
       </rPr>
       <t>Map header.</t>
     </r>
@@ -1035,11 +1006,10 @@
       <rPr>
         <vertAlign val="superscript"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="238"/>
-        <scheme val="minor"/>
       </rPr>
       <t>0</t>
     </r>
@@ -1057,11 +1027,10 @@
       <rPr>
         <vertAlign val="superscript"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="238"/>
-        <scheme val="minor"/>
       </rPr>
       <t>1</t>
     </r>
@@ -1079,11 +1048,10 @@
       <rPr>
         <vertAlign val="superscript"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="238"/>
-        <scheme val="minor"/>
       </rPr>
       <t>2</t>
     </r>
@@ -1101,11 +1069,10 @@
       <rPr>
         <vertAlign val="superscript"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="238"/>
-        <scheme val="minor"/>
       </rPr>
       <t>3</t>
     </r>
@@ -1123,11 +1090,10 @@
       <rPr>
         <vertAlign val="superscript"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="238"/>
-        <scheme val="minor"/>
       </rPr>
       <t>4</t>
     </r>
@@ -1145,11 +1111,10 @@
       <rPr>
         <vertAlign val="superscript"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="238"/>
-        <scheme val="minor"/>
       </rPr>
       <t>5</t>
     </r>
@@ -1167,11 +1132,10 @@
       <rPr>
         <vertAlign val="superscript"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="238"/>
-        <scheme val="minor"/>
       </rPr>
       <t>6</t>
     </r>
@@ -1189,11 +1153,10 @@
       <rPr>
         <vertAlign val="superscript"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color indexed="8"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="238"/>
-        <scheme val="minor"/>
       </rPr>
       <t>7</t>
     </r>
@@ -1469,21 +1432,12 @@
     <t>offsetC + cityX*reservedBytes + 48</t>
   </si>
   <si>
-    <t>workers in inner circle (8 squares next to city square), FF=all worked</t>
-  </si>
-  <si>
     <t>offsetC + cityX*reservedBytes + 49</t>
   </si>
   <si>
-    <t>workers on 8 outer circles</t>
-  </si>
-  <si>
     <t>offsetC + cityX*reservedBytes + 50</t>
   </si>
   <si>
-    <t>workers on 4 outer circles (1st digit always 1, 2nd digit=4 working positions)</t>
-  </si>
-  <si>
     <t>offsetC + cityX*reservedBytes + 51</t>
   </si>
   <si>
@@ -1517,9 +1471,6 @@
     <t>offsetC + cityX*reservedBytes + 59-61</t>
   </si>
   <si>
-    <t>1st, 2nd and 3rd trade commodities available</t>
-  </si>
-  <si>
     <t>(00-0F) are 1st…15th in rules.txt</t>
   </si>
   <si>
@@ -1535,18 +1486,12 @@
     <t>e.g. 0F=uranium, F0=uranium, which is FF-0F</t>
   </si>
   <si>
-    <t>1st, 2nd and 3rd trade commodities demanded</t>
-  </si>
-  <si>
     <t>offsetC + cityX*reservedBytes + 65-67</t>
   </si>
   <si>
     <t>offsetC + cityX*reservedBytes + 62-64</t>
   </si>
   <si>
-    <t>1st, 2nd and 3rd trade commodities in route</t>
-  </si>
-  <si>
     <t>offsetC + cityX*reservedBytes + 68-73</t>
   </si>
   <si>
@@ -1641,13 +1586,52 @@
   </si>
   <si>
     <t>09=cleans up pollution, 10=build airbase, 11=go-to, 255(FF)=no orders</t>
+  </si>
+  <si>
+    <t>distribution of workers on inner circle of map (8 squares next to city square), 1=north, 2=NW, 3=W, … (all the way round the city). 0=no worker, 1=worker present</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - - - 0 1 2 3 4</t>
+  </si>
+  <si>
+    <t>5 6 7 8 9 10 11 12</t>
+  </si>
+  <si>
+    <t>13 14 15 16 17 18 19 20</t>
+  </si>
+  <si>
+    <t>distribution of workers on outer circle of map. 0=no worker, 1=worker present</t>
+  </si>
+  <si>
+    <t>distribution of workers on outer circle of map (position 0 = city) 0=no worker, 1=worker present</t>
+  </si>
+  <si>
+    <t>Amount of current pollution. 7F is maximum, and will certainly cause global temperature rising at the end of the turn. A value of 80 till FF is a negative amount (still shows the icon for global rising), but it will be reset to 00 at the end of the turn.</t>
+  </si>
+  <si>
+    <t>Tax rate (%/10)</t>
+  </si>
+  <si>
+    <t>Block N offset + 19</t>
+  </si>
+  <si>
+    <t>Science rate (%/10)</t>
+  </si>
+  <si>
+    <t>1st, 2nd and 3rd trade commodities demanded (listed in RULES.txt)</t>
+  </si>
+  <si>
+    <t>1st, 2nd and 3rd trade commodities in route (listed in RULES.txt)</t>
+  </si>
+  <si>
+    <t>1st, 2nd and 3rd trade commodities supplied  (listed in RULES.txt)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1657,71 +1641,74 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color indexed="10"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color indexed="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <vertAlign val="superscript"/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1730,49 +1717,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor indexed="13"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor indexed="57"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor indexed="51"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
+        <fgColor indexed="44"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor indexed="50"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF66FF"/>
+        <fgColor indexed="45"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCCFF66"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF66FFFF"/>
+        <fgColor indexed="43"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2065,10 +2046,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -2087,22 +2070,3602 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <mruColors>
-      <color rgb="FF66FFFF"/>
-      <color rgb="FFFF66FF"/>
-      <color rgb="FFCCFF66"/>
-    </mruColors>
-  </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>244</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>254</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="1025" name="Group 1"/>
+        <xdr:cNvGrpSpPr>
+          <a:grpSpLocks noChangeAspect="1"/>
+        </xdr:cNvGrpSpPr>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10458450" y="52616100"/>
+          <a:ext cx="2628900" cy="2819400"/>
+          <a:chOff x="2669" y="2129"/>
+          <a:chExt cx="2896" cy="2896"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="1029" name="AutoShape 2"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="2669" y="2129"/>
+            <a:ext cx="2896" cy="2896"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:noFill/>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="1030" name="Line 3"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeShapeType="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm flipV="1">
+            <a:off x="3037" y="2497"/>
+            <a:ext cx="360" cy="360"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="1031" name="Line 4"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeShapeType="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="3037" y="2857"/>
+            <a:ext cx="360" cy="360"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="1032" name="Line 5"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeShapeType="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm flipV="1">
+            <a:off x="3397" y="2857"/>
+            <a:ext cx="360" cy="360"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="1033" name="Line 6"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeShapeType="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="3397" y="2497"/>
+            <a:ext cx="360" cy="360"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="2" name="Text Box 7"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="3215" y="2677"/>
+            <a:ext cx="367" cy="362"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF">
+              <a:alpha val="0"/>
+            </a:srgbClr>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:noFill/>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sl-SI" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>9</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:endParaRPr lang="sl-SI" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman"/>
+              <a:cs typeface="Times New Roman"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="1035" name="Line 8"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeShapeType="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm flipV="1">
+            <a:off x="3397" y="2857"/>
+            <a:ext cx="360" cy="360"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="1036" name="Line 9"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeShapeType="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="3397" y="3217"/>
+            <a:ext cx="360" cy="360"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="1037" name="Line 10"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeShapeType="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm flipV="1">
+            <a:off x="3757" y="3217"/>
+            <a:ext cx="360" cy="360"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="1038" name="Line 11"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeShapeType="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="3757" y="2857"/>
+            <a:ext cx="360" cy="360"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="Text Box 12"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="3582" y="4477"/>
+            <a:ext cx="357" cy="362"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF">
+              <a:alpha val="0"/>
+            </a:srgbClr>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:noFill/>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sl-SI" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>4</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:endParaRPr lang="sl-SI" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman"/>
+              <a:cs typeface="Times New Roman"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="1040" name="Line 13"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeShapeType="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm flipV="1">
+            <a:off x="3397" y="2137"/>
+            <a:ext cx="360" cy="360"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="1041" name="Line 14"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeShapeType="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="3397" y="2497"/>
+            <a:ext cx="360" cy="360"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="1042" name="Line 15"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeShapeType="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm flipV="1">
+            <a:off x="3757" y="2497"/>
+            <a:ext cx="360" cy="360"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="1043" name="Line 16"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeShapeType="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="3757" y="2137"/>
+            <a:ext cx="360" cy="360"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="Text Box 17"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="3582" y="2315"/>
+            <a:ext cx="357" cy="362"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF">
+              <a:alpha val="0"/>
+            </a:srgbClr>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:noFill/>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sl-SI" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>1</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:endParaRPr lang="sl-SI" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman"/>
+              <a:cs typeface="Times New Roman"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="1045" name="Line 18"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeShapeType="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm flipV="1">
+            <a:off x="3757" y="2497"/>
+            <a:ext cx="360" cy="360"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="1046" name="Line 19"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeShapeType="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="3757" y="2857"/>
+            <a:ext cx="360" cy="360"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="1047" name="Line 20"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeShapeType="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm flipV="1">
+            <a:off x="4117" y="2857"/>
+            <a:ext cx="360" cy="360"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="1048" name="Line 21"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeShapeType="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="4117" y="2497"/>
+            <a:ext cx="360" cy="360"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="Text Box 22"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="3760" y="2677"/>
+            <a:ext cx="535" cy="362"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF">
+              <a:alpha val="0"/>
+            </a:srgbClr>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:noFill/>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sl-SI" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>13</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:endParaRPr lang="sl-SI" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman"/>
+              <a:cs typeface="Times New Roman"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="1050" name="Line 23"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeShapeType="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm flipV="1">
+            <a:off x="3757" y="3217"/>
+            <a:ext cx="360" cy="360"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="1051" name="Line 24"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeShapeType="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="3757" y="3577"/>
+            <a:ext cx="360" cy="360"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="1052" name="Line 25"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeShapeType="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm flipV="1">
+            <a:off x="4117" y="3577"/>
+            <a:ext cx="360" cy="360"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="1053" name="Line 26"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeShapeType="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="4117" y="3217"/>
+            <a:ext cx="360" cy="360"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="Text Box 27"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="3939" y="3401"/>
+            <a:ext cx="357" cy="352"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF">
+              <a:alpha val="0"/>
+            </a:srgbClr>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:noFill/>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sl-SI" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>0</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:endParaRPr lang="sl-SI" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman"/>
+              <a:cs typeface="Times New Roman"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="1055" name="Line 28"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeShapeType="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm flipV="1">
+            <a:off x="4117" y="3577"/>
+            <a:ext cx="360" cy="360"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="1056" name="Line 29"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeShapeType="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="4117" y="3937"/>
+            <a:ext cx="360" cy="360"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="1057" name="Line 30"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeShapeType="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm flipV="1">
+            <a:off x="4477" y="3937"/>
+            <a:ext cx="360" cy="360"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="1058" name="Line 31"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeShapeType="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="4477" y="3577"/>
+            <a:ext cx="360" cy="360"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="Text Box 32"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="4117" y="3753"/>
+            <a:ext cx="535" cy="362"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF">
+              <a:alpha val="0"/>
+            </a:srgbClr>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:noFill/>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sl-SI" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>18</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:endParaRPr lang="sl-SI" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman"/>
+              <a:cs typeface="Times New Roman"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="1060" name="Line 33"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeShapeType="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm flipV="1">
+            <a:off x="4117" y="2857"/>
+            <a:ext cx="360" cy="360"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="1061" name="Line 34"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeShapeType="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="4117" y="3217"/>
+            <a:ext cx="360" cy="360"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="1062" name="Line 35"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeShapeType="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm flipV="1">
+            <a:off x="4477" y="3217"/>
+            <a:ext cx="360" cy="360"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="1063" name="Line 36"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeShapeType="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="4477" y="2857"/>
+            <a:ext cx="360" cy="360"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="Text Box 37"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="4117" y="3039"/>
+            <a:ext cx="535" cy="362"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF">
+              <a:alpha val="0"/>
+            </a:srgbClr>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:noFill/>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sl-SI" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>20</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:endParaRPr lang="sl-SI" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman"/>
+              <a:cs typeface="Times New Roman"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="1065" name="Line 38"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeShapeType="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm flipV="1">
+            <a:off x="4477" y="3217"/>
+            <a:ext cx="360" cy="360"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="1066" name="Line 39"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeShapeType="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="4477" y="3577"/>
+            <a:ext cx="360" cy="360"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="1067" name="Line 40"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeShapeType="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm flipV="1">
+            <a:off x="4837" y="3577"/>
+            <a:ext cx="360" cy="360"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="1068" name="Line 41"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeShapeType="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="4837" y="3217"/>
+            <a:ext cx="360" cy="360"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="Text Box 42"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="4474" y="3401"/>
+            <a:ext cx="546" cy="352"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF">
+              <a:alpha val="0"/>
+            </a:srgbClr>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:noFill/>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sl-SI" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>19</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:endParaRPr lang="sl-SI" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman"/>
+              <a:cs typeface="Times New Roman"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="1070" name="Line 43"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeShapeType="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm flipV="1">
+            <a:off x="2677" y="2857"/>
+            <a:ext cx="360" cy="360"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="1071" name="Line 44"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeShapeType="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="2677" y="3217"/>
+            <a:ext cx="360" cy="360"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="1069" name="Text Box 45"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="2858" y="3039"/>
+            <a:ext cx="357" cy="362"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF">
+              <a:alpha val="0"/>
+            </a:srgbClr>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:noFill/>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sl-SI" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>2</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:endParaRPr lang="sl-SI" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman"/>
+              <a:cs typeface="Times New Roman"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="1073" name="Line 46"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeShapeType="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm flipV="1">
+            <a:off x="3037" y="3217"/>
+            <a:ext cx="360" cy="360"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="1074" name="Line 47"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeShapeType="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="3037" y="2857"/>
+            <a:ext cx="360" cy="360"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="1075" name="Line 48"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeShapeType="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm flipV="1">
+            <a:off x="3037" y="3217"/>
+            <a:ext cx="360" cy="360"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="1076" name="Line 49"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeShapeType="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="3037" y="3577"/>
+            <a:ext cx="360" cy="360"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="Text Box 50"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="3036" y="3401"/>
+            <a:ext cx="546" cy="352"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF">
+              <a:alpha val="0"/>
+            </a:srgbClr>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:noFill/>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sl-SI" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>15</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:endParaRPr lang="sl-SI" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman"/>
+              <a:cs typeface="Times New Roman"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="1078" name="Line 51"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeShapeType="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm flipV="1">
+            <a:off x="3397" y="3577"/>
+            <a:ext cx="360" cy="360"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="1079" name="Line 52"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeShapeType="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="3397" y="3217"/>
+            <a:ext cx="360" cy="360"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="1080" name="Line 53"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeShapeType="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm flipV="1">
+            <a:off x="3397" y="3577"/>
+            <a:ext cx="360" cy="360"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="1081" name="Line 54"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeShapeType="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="3397" y="3937"/>
+            <a:ext cx="360" cy="360"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="11" name="Text Box 55"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="3393" y="3753"/>
+            <a:ext cx="546" cy="362"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF">
+              <a:alpha val="0"/>
+            </a:srgbClr>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:noFill/>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sl-SI" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>16</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:endParaRPr lang="sl-SI" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman"/>
+              <a:cs typeface="Times New Roman"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="1083" name="Line 56"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeShapeType="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm flipV="1">
+            <a:off x="3757" y="3937"/>
+            <a:ext cx="360" cy="360"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="1084" name="Line 57"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeShapeType="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="3757" y="3577"/>
+            <a:ext cx="360" cy="360"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="1085" name="Line 58"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeShapeType="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm flipV="1">
+            <a:off x="3757" y="3937"/>
+            <a:ext cx="360" cy="360"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="1086" name="Line 59"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeShapeType="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="3757" y="4297"/>
+            <a:ext cx="360" cy="360"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="12" name="Text Box 60"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="3760" y="4115"/>
+            <a:ext cx="535" cy="362"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF">
+              <a:alpha val="0"/>
+            </a:srgbClr>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:noFill/>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sl-SI" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>17</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:endParaRPr lang="sl-SI" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman"/>
+              <a:cs typeface="Times New Roman"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="1088" name="Line 61"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeShapeType="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm flipV="1">
+            <a:off x="4117" y="4297"/>
+            <a:ext cx="360" cy="360"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="1089" name="Line 62"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeShapeType="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="4117" y="3937"/>
+            <a:ext cx="360" cy="360"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="1090" name="Line 63"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeShapeType="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm flipV="1">
+            <a:off x="4117" y="4297"/>
+            <a:ext cx="360" cy="360"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="1091" name="Line 64"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeShapeType="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="4117" y="4657"/>
+            <a:ext cx="360" cy="360"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="13" name="Text Box 65"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="4295" y="4477"/>
+            <a:ext cx="357" cy="362"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF">
+              <a:alpha val="0"/>
+            </a:srgbClr>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:noFill/>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sl-SI" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>5</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:endParaRPr lang="sl-SI" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman"/>
+              <a:cs typeface="Times New Roman"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="1093" name="Line 66"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeShapeType="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm flipV="1">
+            <a:off x="4477" y="4657"/>
+            <a:ext cx="360" cy="360"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="1094" name="Line 67"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeShapeType="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="4477" y="4297"/>
+            <a:ext cx="360" cy="360"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="1095" name="Line 68"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeShapeType="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm flipV="1">
+            <a:off x="4477" y="3937"/>
+            <a:ext cx="360" cy="360"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="1096" name="Line 69"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeShapeType="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="4477" y="4297"/>
+            <a:ext cx="360" cy="360"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="14" name="Text Box 70"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="4474" y="4115"/>
+            <a:ext cx="546" cy="362"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF">
+              <a:alpha val="0"/>
+            </a:srgbClr>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:noFill/>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sl-SI" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>11</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:endParaRPr lang="sl-SI" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman"/>
+              <a:cs typeface="Times New Roman"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="1098" name="Line 71"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeShapeType="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm flipV="1">
+            <a:off x="4837" y="4297"/>
+            <a:ext cx="360" cy="360"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="1099" name="Line 72"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeShapeType="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="4837" y="3937"/>
+            <a:ext cx="360" cy="360"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="1100" name="Line 73"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeShapeType="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm flipV="1">
+            <a:off x="4837" y="3577"/>
+            <a:ext cx="360" cy="360"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="1101" name="Line 74"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeShapeType="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="4837" y="3937"/>
+            <a:ext cx="360" cy="360"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="15" name="Text Box 75"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="5019" y="3753"/>
+            <a:ext cx="357" cy="362"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF">
+              <a:alpha val="0"/>
+            </a:srgbClr>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:noFill/>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sl-SI" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>6</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:endParaRPr lang="sl-SI" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman"/>
+              <a:cs typeface="Times New Roman"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="1103" name="Line 76"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeShapeType="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm flipV="1">
+            <a:off x="5197" y="3937"/>
+            <a:ext cx="360" cy="360"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="1104" name="Line 77"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeShapeType="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="5197" y="3577"/>
+            <a:ext cx="360" cy="360"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="1105" name="Line 78"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeShapeType="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm flipV="1">
+            <a:off x="4117" y="2137"/>
+            <a:ext cx="360" cy="360"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="1106" name="Line 79"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeShapeType="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="4117" y="2497"/>
+            <a:ext cx="360" cy="360"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="16" name="Text Box 80"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="4295" y="2315"/>
+            <a:ext cx="357" cy="362"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF">
+              <a:alpha val="0"/>
+            </a:srgbClr>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:noFill/>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sl-SI" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>8</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:endParaRPr lang="sl-SI" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman"/>
+              <a:cs typeface="Times New Roman"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="1108" name="Line 81"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeShapeType="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm flipV="1">
+            <a:off x="4477" y="2497"/>
+            <a:ext cx="360" cy="360"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="1109" name="Line 82"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeShapeType="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="4477" y="2137"/>
+            <a:ext cx="360" cy="360"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="1110" name="Line 83"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeShapeType="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm flipV="1">
+            <a:off x="4477" y="2497"/>
+            <a:ext cx="360" cy="360"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="1111" name="Line 84"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeShapeType="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="4477" y="2857"/>
+            <a:ext cx="360" cy="360"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="17" name="Text Box 85"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="4474" y="2677"/>
+            <a:ext cx="546" cy="362"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF">
+              <a:alpha val="0"/>
+            </a:srgbClr>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:noFill/>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sl-SI" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>12</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:endParaRPr lang="sl-SI" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman"/>
+              <a:cs typeface="Times New Roman"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="1113" name="Line 86"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeShapeType="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm flipV="1">
+            <a:off x="4837" y="2857"/>
+            <a:ext cx="360" cy="360"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="1114" name="Line 87"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeShapeType="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="4837" y="2497"/>
+            <a:ext cx="360" cy="360"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="1115" name="Line 88"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeShapeType="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm flipV="1">
+            <a:off x="4837" y="2857"/>
+            <a:ext cx="360" cy="360"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="1116" name="Line 89"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeShapeType="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="4837" y="3217"/>
+            <a:ext cx="360" cy="360"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="18" name="Text Box 90"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="5019" y="3039"/>
+            <a:ext cx="357" cy="362"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF">
+              <a:alpha val="0"/>
+            </a:srgbClr>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:noFill/>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sl-SI" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>7</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:endParaRPr lang="sl-SI" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman"/>
+              <a:cs typeface="Times New Roman"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="1118" name="Line 91"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeShapeType="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm flipV="1">
+            <a:off x="5197" y="3217"/>
+            <a:ext cx="360" cy="360"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="1119" name="Line 92"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeShapeType="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="5197" y="2857"/>
+            <a:ext cx="360" cy="360"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="1120" name="Line 93"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeShapeType="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm flipV="1">
+            <a:off x="2677" y="3577"/>
+            <a:ext cx="360" cy="360"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="1121" name="Line 94"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeShapeType="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="2677" y="3937"/>
+            <a:ext cx="360" cy="360"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="19" name="Text Box 95"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="2858" y="3753"/>
+            <a:ext cx="357" cy="362"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF">
+              <a:alpha val="0"/>
+            </a:srgbClr>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:noFill/>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sl-SI" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>3</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:endParaRPr lang="sl-SI" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman"/>
+              <a:cs typeface="Times New Roman"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="1123" name="Line 96"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeShapeType="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm flipV="1">
+            <a:off x="3037" y="3937"/>
+            <a:ext cx="360" cy="360"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="1124" name="Line 97"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeShapeType="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="3037" y="3577"/>
+            <a:ext cx="360" cy="360"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="1125" name="Line 98"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeShapeType="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm flipV="1">
+            <a:off x="3037" y="3937"/>
+            <a:ext cx="360" cy="360"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="1126" name="Line 99"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeShapeType="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="3037" y="4297"/>
+            <a:ext cx="360" cy="360"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="20" name="Text Box 100"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="3036" y="4115"/>
+            <a:ext cx="546" cy="362"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF">
+              <a:alpha val="0"/>
+            </a:srgbClr>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:noFill/>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sl-SI" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>10</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:endParaRPr lang="sl-SI" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman"/>
+              <a:cs typeface="Times New Roman"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="1128" name="Line 101"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeShapeType="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm flipV="1">
+            <a:off x="3397" y="4297"/>
+            <a:ext cx="360" cy="360"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="1129" name="Line 102"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeShapeType="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="3397" y="3937"/>
+            <a:ext cx="360" cy="360"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="1130" name="Line 103"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeShapeType="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="3397" y="4657"/>
+            <a:ext cx="360" cy="360"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="21" name="Text Box 104"/>
+          <xdr:cNvSpPr txBox="1">
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="3393" y="3039"/>
+            <a:ext cx="546" cy="362"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF">
+              <a:alpha val="0"/>
+            </a:srgbClr>
+          </a:solidFill>
+          <a:ln w="9525">
+            <a:noFill/>
+            <a:miter lim="800000"/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="t" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sl-SI" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman"/>
+                <a:cs typeface="Times New Roman"/>
+              </a:rPr>
+              <a:t>14</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:endParaRPr lang="sl-SI" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman"/>
+              <a:cs typeface="Times New Roman"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="1132" name="Line 105"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeShapeType="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm flipV="1">
+            <a:off x="3757" y="4657"/>
+            <a:ext cx="360" cy="360"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="1133" name="Line 106"/>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeShapeType="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="3637" y="2737"/>
+            <a:ext cx="360" cy="360"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:round/>
+            <a:headEnd/>
+            <a:tailEnd/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>250</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>250</xdr:row>
+      <xdr:rowOff>428625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1026" name="AutoShape 107"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9220200" y="53997225"/>
+          <a:ext cx="781050" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj2" fmla="val 93182"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>251</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>251</xdr:row>
+      <xdr:rowOff>333375</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1027" name="AutoShape 108"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9248775" y="54511575"/>
+          <a:ext cx="1057275" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj2" fmla="val 146053"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>252</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>252</xdr:row>
+      <xdr:rowOff>352425</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1028" name="AutoShape 109"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9229725" y="54921150"/>
+          <a:ext cx="1381125" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+            <a:gd name="adj2" fmla="val 190789"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2148,7 +5711,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -2183,7 +5746,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -2360,37 +5923,37 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N282"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N283"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A199" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E216" sqref="E216"/>
+      <pane ySplit="1" topLeftCell="A246" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E270" sqref="E270"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.21875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.5546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="62.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18" style="2" customWidth="1"/>
+    <col min="5" max="5" width="62.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1">
       <c r="A1" s="16"/>
       <c r="B1" s="17" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D1" s="18" t="s">
         <v>12</v>
@@ -2399,7 +5962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" s="15" t="s">
         <v>2</v>
       </c>
@@ -2412,7 +5975,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="1"/>
       <c r="B3" s="6"/>
       <c r="C3" s="7"/>
@@ -2421,7 +5984,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" s="1"/>
       <c r="B4" s="6"/>
       <c r="C4" s="7"/>
@@ -2430,7 +5993,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5" s="1"/>
       <c r="B5" s="6"/>
       <c r="C5" s="7"/>
@@ -2439,7 +6002,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="15.75" thickBot="1">
       <c r="A6" s="1"/>
       <c r="B6" s="9"/>
       <c r="C6" s="10"/>
@@ -2448,7 +6011,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5">
       <c r="A7" s="1"/>
       <c r="B7" s="3">
         <v>12</v>
@@ -2461,7 +6024,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="15.75" thickBot="1">
       <c r="A8" s="1"/>
       <c r="B8" s="9"/>
       <c r="C8" s="10"/>
@@ -2472,7 +6035,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" s="1"/>
       <c r="B9" s="3">
         <v>13</v>
@@ -2485,7 +6048,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="15.75" thickBot="1">
       <c r="A10" s="1"/>
       <c r="B10" s="9"/>
       <c r="C10" s="10"/>
@@ -2496,7 +6059,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5">
       <c r="A11" s="1"/>
       <c r="B11" s="3">
         <v>14</v>
@@ -2509,7 +6072,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12" s="1"/>
       <c r="B12" s="6"/>
       <c r="C12" s="7"/>
@@ -2520,7 +6083,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13" s="1"/>
       <c r="B13" s="6"/>
       <c r="C13" s="7"/>
@@ -2531,7 +6094,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="A14" s="1"/>
       <c r="B14" s="6"/>
       <c r="C14" s="7"/>
@@ -2542,7 +6105,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" ht="15.75" thickBot="1">
       <c r="A15" s="1"/>
       <c r="B15" s="9"/>
       <c r="C15" s="10"/>
@@ -2553,7 +6116,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5">
       <c r="A16" s="1"/>
       <c r="B16" s="3">
         <v>15</v>
@@ -2566,7 +6129,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5">
       <c r="A17" s="1"/>
       <c r="B17" s="6"/>
       <c r="C17" s="7"/>
@@ -2577,7 +6140,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18" s="1"/>
       <c r="B18" s="6"/>
       <c r="C18" s="7"/>
@@ -2588,7 +6151,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5">
       <c r="A19" s="1"/>
       <c r="B19" s="6"/>
       <c r="C19" s="7"/>
@@ -2599,7 +6162,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5">
       <c r="A20" s="1"/>
       <c r="B20" s="6"/>
       <c r="C20" s="7"/>
@@ -2610,7 +6173,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5">
       <c r="A21" s="1"/>
       <c r="B21" s="6"/>
       <c r="C21" s="7"/>
@@ -2621,7 +6184,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5">
       <c r="A22" s="1"/>
       <c r="B22" s="6"/>
       <c r="C22" s="7"/>
@@ -2632,7 +6195,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" ht="15.75" thickBot="1">
       <c r="A23" s="1"/>
       <c r="B23" s="9"/>
       <c r="C23" s="10"/>
@@ -2643,7 +6206,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5">
       <c r="A24" s="1"/>
       <c r="B24" s="3">
         <v>16</v>
@@ -2656,7 +6219,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5">
       <c r="A25" s="1"/>
       <c r="B25" s="6"/>
       <c r="C25" s="7"/>
@@ -2667,7 +6230,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5">
       <c r="A26" s="1"/>
       <c r="B26" s="6"/>
       <c r="C26" s="7"/>
@@ -2678,7 +6241,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5">
       <c r="A27" s="1"/>
       <c r="B27" s="6"/>
       <c r="C27" s="7"/>
@@ -2689,7 +6252,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5">
       <c r="A28" s="1"/>
       <c r="B28" s="6"/>
       <c r="C28" s="7"/>
@@ -2700,7 +6263,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" ht="15.75" thickBot="1">
       <c r="A29" s="1"/>
       <c r="B29" s="9"/>
       <c r="C29" s="10"/>
@@ -2711,7 +6274,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5">
       <c r="A30" s="1"/>
       <c r="B30" s="3">
         <v>20</v>
@@ -2724,7 +6287,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" ht="15.75" thickBot="1">
       <c r="A31" s="1"/>
       <c r="B31" s="9"/>
       <c r="C31" s="10"/>
@@ -2735,7 +6298,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5">
       <c r="A32" s="1"/>
       <c r="B32" s="3">
         <v>22</v>
@@ -2748,7 +6311,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6">
       <c r="A33" s="1"/>
       <c r="B33" s="6"/>
       <c r="C33" s="7"/>
@@ -2759,7 +6322,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6">
       <c r="A34" s="1"/>
       <c r="B34" s="6"/>
       <c r="C34" s="7"/>
@@ -2770,7 +6333,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6">
       <c r="A35" s="1"/>
       <c r="B35" s="6"/>
       <c r="C35" s="7"/>
@@ -2781,7 +6344,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6">
       <c r="A36" s="1"/>
       <c r="B36" s="6"/>
       <c r="C36" s="7"/>
@@ -2792,7 +6355,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6">
       <c r="A37" s="1"/>
       <c r="B37" s="6"/>
       <c r="C37" s="7"/>
@@ -2803,7 +6366,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6">
       <c r="A38" s="1"/>
       <c r="B38" s="6"/>
       <c r="C38" s="7"/>
@@ -2814,7 +6377,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" ht="15.75" thickBot="1">
       <c r="A39" s="1"/>
       <c r="B39" s="9"/>
       <c r="C39" s="10"/>
@@ -2825,7 +6388,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6">
       <c r="A40" s="1"/>
       <c r="B40" s="3">
         <v>23</v>
@@ -2838,7 +6401,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6">
       <c r="A41" s="1"/>
       <c r="B41" s="6"/>
       <c r="C41" s="7"/>
@@ -2849,7 +6412,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" ht="15.75" thickBot="1">
       <c r="A42" s="1"/>
       <c r="B42" s="9"/>
       <c r="C42" s="10"/>
@@ -2860,7 +6423,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" ht="15.75" thickBot="1">
       <c r="A43" s="1"/>
       <c r="B43" s="17" t="s">
         <v>54</v>
@@ -2871,7 +6434,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" ht="15.75" thickBot="1">
       <c r="A44" s="1"/>
       <c r="B44" s="17" t="s">
         <v>56</v>
@@ -2882,10 +6445,10 @@
         <v>57</v>
       </c>
       <c r="F44" s="39" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15.75" thickBot="1">
       <c r="A45" s="1"/>
       <c r="B45" s="17" t="s">
         <v>58</v>
@@ -2893,10 +6456,10 @@
       <c r="C45" s="18"/>
       <c r="D45" s="18"/>
       <c r="E45" s="20" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="15.75" thickBot="1">
       <c r="A46" s="1"/>
       <c r="B46" s="17">
         <v>39</v>
@@ -2907,7 +6470,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" ht="15.75" thickBot="1">
       <c r="A47" s="1"/>
       <c r="B47" s="17">
         <v>40</v>
@@ -2918,7 +6481,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" ht="15.75" thickBot="1">
       <c r="A48" s="1"/>
       <c r="B48" s="17">
         <v>41</v>
@@ -2929,7 +6492,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" ht="15.75" thickBot="1">
       <c r="A49" s="1"/>
       <c r="B49" s="17">
         <v>42</v>
@@ -2940,7 +6503,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" ht="15.75" thickBot="1">
       <c r="A50" s="1"/>
       <c r="B50" s="17">
         <v>43</v>
@@ -2951,7 +6514,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" ht="15.75" thickBot="1">
       <c r="A51" s="1"/>
       <c r="B51" s="17">
         <v>44</v>
@@ -2962,7 +6525,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" ht="15.75" thickBot="1">
       <c r="A52" s="1"/>
       <c r="B52" s="17">
         <v>45</v>
@@ -2973,7 +6536,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5">
       <c r="A53" s="1"/>
       <c r="B53" s="3">
         <v>46</v>
@@ -2984,7 +6547,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" ht="15.75" thickBot="1">
       <c r="A54" s="1"/>
       <c r="B54" s="9"/>
       <c r="C54" s="10"/>
@@ -2993,7 +6556,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5">
       <c r="A55" s="1"/>
       <c r="B55" s="3">
         <v>47</v>
@@ -3004,7 +6567,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" ht="15.75" thickBot="1">
       <c r="A56" s="1"/>
       <c r="B56" s="9"/>
       <c r="C56" s="10"/>
@@ -3013,7 +6576,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="58.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" ht="60.75" thickBot="1">
       <c r="A57" s="1"/>
       <c r="B57" s="23">
         <v>50</v>
@@ -3021,10 +6584,10 @@
       <c r="C57" s="31"/>
       <c r="D57" s="18"/>
       <c r="E57" s="22" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="129.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="165.75" thickBot="1">
       <c r="A58" s="1"/>
       <c r="B58" s="23">
         <v>51</v>
@@ -3032,10 +6595,10 @@
       <c r="C58" s="31"/>
       <c r="D58" s="18"/>
       <c r="E58" s="22" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="15.75" thickBot="1">
       <c r="A59" s="1"/>
       <c r="B59" s="17">
         <v>56</v>
@@ -3043,2514 +6606,2539 @@
       <c r="C59" s="18"/>
       <c r="D59" s="18"/>
       <c r="E59" s="20" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="30.6" customHeight="1" thickBot="1">
       <c r="A60" s="1"/>
       <c r="B60" s="23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C60" s="31"/>
       <c r="D60" s="18"/>
       <c r="E60" s="25" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="45.75" thickBot="1">
       <c r="A61" s="1"/>
       <c r="B61" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C61" s="31"/>
       <c r="D61" s="18"/>
       <c r="E61" s="25" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="26" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="26" t="s">
+      <c r="B62" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>78</v>
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
       <c r="E62" s="27" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63" s="30"/>
       <c r="B63" s="28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C63" s="14"/>
       <c r="D63" s="7"/>
       <c r="E63" s="24" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
       <c r="A64" s="30"/>
       <c r="B64" s="6"/>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
       <c r="E64" s="24" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
       <c r="A65" s="30"/>
       <c r="B65" s="6"/>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
       <c r="E65" s="24" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="30.75" thickBot="1">
       <c r="A66" s="30"/>
       <c r="B66" s="9"/>
       <c r="C66" s="10"/>
       <c r="D66" s="10"/>
       <c r="E66" s="29" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="30">
+      <c r="A67" s="32" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A67" s="32" t="s">
+      <c r="B67" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="C67" s="35" t="s">
         <v>85</v>
-      </c>
-      <c r="B67" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="C67" s="35" t="s">
-        <v>86</v>
       </c>
       <c r="D67" s="4"/>
       <c r="E67" s="27" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
       <c r="A68" s="33"/>
       <c r="B68" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D68" s="7"/>
       <c r="E68" s="24" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
       <c r="A69" s="33"/>
       <c r="B69" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D69" s="7"/>
       <c r="E69" s="24" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
       <c r="A70" s="33"/>
       <c r="B70" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D70" s="7"/>
       <c r="E70" s="24" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
       <c r="A71" s="33"/>
       <c r="B71" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D71" s="7"/>
       <c r="E71" s="24" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
       <c r="A72" s="33"/>
       <c r="B72" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D72" s="7"/>
       <c r="E72" s="24" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
       <c r="A73" s="33"/>
       <c r="B73" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D73" s="7"/>
       <c r="E73" s="24" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
       <c r="A74" s="33"/>
       <c r="B74" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D74" s="7"/>
       <c r="E74" s="24" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="15.75" thickBot="1">
       <c r="A75" s="33"/>
       <c r="B75" s="6"/>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
       <c r="E75" s="24" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="15.75" thickBot="1">
       <c r="A76" s="33"/>
       <c r="B76" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C76" s="18"/>
       <c r="D76" s="18"/>
       <c r="E76" s="25" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="15.75" thickBot="1">
       <c r="A77" s="33"/>
       <c r="B77" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C77" s="18"/>
       <c r="D77" s="18"/>
       <c r="E77" s="25" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="15.75" thickBot="1">
       <c r="A78" s="33"/>
       <c r="B78" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C78" s="18"/>
       <c r="D78" s="18"/>
       <c r="E78" s="25" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="15.75" thickBot="1">
       <c r="A79" s="33"/>
       <c r="B79" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C79" s="18"/>
       <c r="D79" s="18"/>
       <c r="E79" s="25" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="15.75" thickBot="1">
       <c r="A80" s="33"/>
       <c r="B80" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C80" s="18"/>
       <c r="D80" s="18"/>
       <c r="E80" s="25" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="15.75" thickBot="1">
       <c r="A81" s="33"/>
       <c r="B81" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C81" s="18"/>
       <c r="D81" s="18"/>
       <c r="E81" s="25" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="15.75" thickBot="1">
       <c r="A82" s="33"/>
       <c r="B82" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C82" s="18"/>
       <c r="D82" s="18"/>
       <c r="E82" s="25" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="15.75" thickBot="1">
       <c r="A83" s="33"/>
       <c r="B83" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C83" s="18"/>
       <c r="D83" s="18"/>
       <c r="E83" s="25" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="15.75" thickBot="1">
       <c r="A84" s="33"/>
       <c r="B84" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C84" s="18"/>
       <c r="D84" s="18"/>
       <c r="E84" s="25" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="15.75" thickBot="1">
       <c r="A85" s="33"/>
       <c r="B85" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C85" s="18"/>
       <c r="D85" s="18"/>
       <c r="E85" s="25" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="15.75" thickBot="1">
       <c r="A86" s="33"/>
       <c r="B86" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C86" s="18"/>
       <c r="D86" s="18"/>
       <c r="E86" s="25" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
       <c r="A87" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C87" s="37" t="s">
         <v>134</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C87" s="37" t="s">
-        <v>135</v>
       </c>
       <c r="D87" s="4"/>
       <c r="E87" s="27" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
       <c r="A88" s="38"/>
       <c r="B88" s="6"/>
       <c r="C88" s="7"/>
       <c r="D88" s="7"/>
       <c r="E88" s="8" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
       <c r="A89" s="38"/>
       <c r="B89" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D89" s="7"/>
       <c r="E89" s="24" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
       <c r="A90" s="38"/>
       <c r="B90" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D90" s="7"/>
       <c r="E90" s="24" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
       <c r="A91" s="38"/>
       <c r="B91" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D91" s="7"/>
       <c r="E91" s="24" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
       <c r="A92" s="38"/>
       <c r="B92" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D92" s="7"/>
       <c r="E92" s="24" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
       <c r="A93" s="38"/>
       <c r="B93" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D93" s="7"/>
       <c r="E93" s="24" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
       <c r="A94" s="38"/>
       <c r="B94" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D94" s="7"/>
       <c r="E94" s="24" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
       <c r="A95" s="38"/>
       <c r="B95" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D95" s="7"/>
       <c r="E95" s="24" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="15.75" thickBot="1">
       <c r="A96" s="38"/>
       <c r="B96" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D96" s="10"/>
       <c r="E96" s="29" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="15.75" thickBot="1">
       <c r="A97" s="38"/>
       <c r="B97" s="17" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C97" s="18"/>
       <c r="D97" s="18"/>
       <c r="E97" s="25" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="15.75" thickBot="1">
       <c r="A98" s="38"/>
       <c r="B98" s="17" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C98" s="18"/>
       <c r="D98" s="18"/>
       <c r="E98" s="25" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="15.75" thickBot="1">
       <c r="A99" s="38"/>
       <c r="B99" s="17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C99" s="18"/>
       <c r="D99" s="18"/>
       <c r="E99" s="25" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="15.75" thickBot="1">
       <c r="A100" s="38"/>
       <c r="B100" s="17" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C100" s="18"/>
       <c r="D100" s="18"/>
       <c r="E100" s="25" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="15.75" thickBot="1">
       <c r="A101" s="38"/>
       <c r="B101" s="17" t="s">
-        <v>171</v>
+        <v>470</v>
       </c>
       <c r="C101" s="18"/>
       <c r="D101" s="18"/>
       <c r="E101" s="25" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="15.75" thickBot="1">
       <c r="A102" s="38"/>
-      <c r="B102" s="23" t="s">
-        <v>173</v>
+      <c r="B102" s="17" t="s">
+        <v>170</v>
       </c>
       <c r="C102" s="18"/>
       <c r="D102" s="18"/>
       <c r="E102" s="25" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="90.75" thickBot="1">
       <c r="A103" s="38"/>
-      <c r="B103" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="C103" s="4"/>
-      <c r="D103" s="4"/>
-      <c r="E103" s="27" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B103" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="C103" s="18"/>
+      <c r="D103" s="18"/>
+      <c r="E103" s="25" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="15.75" thickBot="1">
       <c r="A104" s="38"/>
       <c r="B104" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
       <c r="E104" s="27" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
       <c r="A105" s="38"/>
-      <c r="B105" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="C105" s="7"/>
-      <c r="D105" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E105" s="24" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B105" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C105" s="4"/>
+      <c r="D105" s="4"/>
+      <c r="E105" s="27" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
       <c r="A106" s="38"/>
-      <c r="B106" s="6"/>
+      <c r="B106" s="6" t="s">
+        <v>177</v>
+      </c>
       <c r="C106" s="7"/>
       <c r="D106" s="14" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="E106" s="24" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
       <c r="A107" s="38"/>
       <c r="B107" s="6"/>
       <c r="C107" s="7"/>
       <c r="D107" s="14" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="E107" s="24" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
       <c r="A108" s="38"/>
       <c r="B108" s="6"/>
       <c r="C108" s="7"/>
       <c r="D108" s="14" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E108" s="24" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
       <c r="A109" s="38"/>
       <c r="B109" s="6"/>
       <c r="C109" s="7"/>
       <c r="D109" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E109" s="24" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="38"/>
+      <c r="B110" s="6"/>
+      <c r="C110" s="7"/>
+      <c r="D110" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E109" s="24" t="s">
+      <c r="E110" s="24" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A111" s="38"/>
+      <c r="B111" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="C111" s="10"/>
+      <c r="D111" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E111" s="29" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="38"/>
-      <c r="B110" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="C110" s="10"/>
-      <c r="D110" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E110" s="29" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A111" s="38"/>
-      <c r="B111" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="C111" s="4"/>
-      <c r="D111" s="4"/>
-      <c r="E111" s="27" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" ht="15.75" thickBot="1">
       <c r="A112" s="38"/>
       <c r="B112" s="3" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
       <c r="E112" s="27" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="38"/>
+      <c r="B113" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C113" s="4"/>
+      <c r="D113" s="4"/>
+      <c r="E113" s="27" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="38"/>
+      <c r="B114" s="6" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A113" s="38"/>
-      <c r="B113" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="C113" s="7"/>
-      <c r="D113" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E113" s="24" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A114" s="38"/>
-      <c r="B114" s="6"/>
       <c r="C114" s="7"/>
       <c r="D114" s="14" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="E114" s="24" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
       <c r="A115" s="38"/>
       <c r="B115" s="6"/>
       <c r="C115" s="7"/>
       <c r="D115" s="14" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="E115" s="24" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
       <c r="A116" s="38"/>
       <c r="B116" s="6"/>
       <c r="C116" s="7"/>
-      <c r="D116" s="7"/>
+      <c r="D116" s="14" t="s">
+        <v>21</v>
+      </c>
       <c r="E116" s="24" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
       <c r="A117" s="38"/>
       <c r="B117" s="6"/>
       <c r="C117" s="7"/>
-      <c r="D117" s="14" t="s">
-        <v>8</v>
-      </c>
+      <c r="D117" s="7"/>
       <c r="E117" s="24" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
       <c r="A118" s="38"/>
-      <c r="B118" s="6" t="s">
-        <v>197</v>
-      </c>
+      <c r="B118" s="6"/>
       <c r="C118" s="7"/>
       <c r="D118" s="14" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E118" s="24" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
       <c r="A119" s="38"/>
-      <c r="B119" s="6"/>
+      <c r="B119" s="6" t="s">
+        <v>195</v>
+      </c>
       <c r="C119" s="7"/>
       <c r="D119" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E119" s="24" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="38"/>
+      <c r="B120" s="6"/>
+      <c r="C120" s="7"/>
+      <c r="D120" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="E119" s="24" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A120" s="38"/>
-      <c r="B120" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="C120" s="10"/>
-      <c r="D120" s="10"/>
-      <c r="E120" s="29" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E120" s="24" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="15.75" thickBot="1">
       <c r="A121" s="38"/>
-      <c r="B121" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="C121" s="18"/>
-      <c r="D121" s="18"/>
-      <c r="E121" s="25" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B121" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="C121" s="10"/>
+      <c r="D121" s="10"/>
+      <c r="E121" s="29" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="15.75" thickBot="1">
       <c r="A122" s="38"/>
-      <c r="B122" s="23" t="s">
-        <v>202</v>
+      <c r="B122" s="17" t="s">
+        <v>198</v>
       </c>
       <c r="C122" s="18"/>
       <c r="D122" s="18"/>
-      <c r="E122" s="22" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="41" t="s">
+      <c r="E122" s="25" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="60.75" thickBot="1">
+      <c r="A123" s="38"/>
+      <c r="B123" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="C123" s="18"/>
+      <c r="D123" s="18"/>
+      <c r="E123" s="22" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="30.75" thickBot="1">
+      <c r="A124" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="B124" s="45" t="s">
+        <v>226</v>
+      </c>
+      <c r="C124" s="46" t="s">
+        <v>227</v>
+      </c>
+      <c r="D124" s="4"/>
+      <c r="E124" s="47" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A125" s="42"/>
+      <c r="B125" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="C125" s="18" t="s">
         <v>206</v>
       </c>
-      <c r="B123" s="45" t="s">
-        <v>228</v>
-      </c>
-      <c r="C123" s="46" t="s">
+      <c r="D125" s="18"/>
+      <c r="E125" s="25" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A126" s="42"/>
+      <c r="B126" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="C126" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="D126" s="7"/>
+      <c r="E126" s="24" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A127" s="42"/>
+      <c r="B127" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="C127" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="D127" s="18"/>
+      <c r="E127" s="25" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" s="42"/>
+      <c r="B128" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="D128" s="4"/>
+      <c r="E128" s="27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A129" s="42"/>
+      <c r="B129" s="9"/>
+      <c r="C129" s="10"/>
+      <c r="D129" s="10"/>
+      <c r="E129" s="29" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A130" s="42"/>
+      <c r="B130" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="C130" s="43" t="s">
+        <v>218</v>
+      </c>
+      <c r="D130" s="7"/>
+      <c r="E130" s="24" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A131" s="42"/>
+      <c r="B131" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="C131" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="D131" s="18"/>
+      <c r="E131" s="44" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A132" s="42"/>
+      <c r="B132" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="C132" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="D132" s="7"/>
+      <c r="E132" s="40" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="42"/>
+      <c r="B133" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="D133" s="4"/>
+      <c r="E133" s="48" t="s">
         <v>229</v>
       </c>
-      <c r="D123" s="4"/>
-      <c r="E123" s="47" t="s">
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" s="42"/>
+      <c r="B134" s="28" t="s">
+        <v>234</v>
+      </c>
+      <c r="C134" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="D134" s="7"/>
+      <c r="E134" s="8" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A124" s="42"/>
-      <c r="B124" s="17" t="s">
-        <v>207</v>
-      </c>
-      <c r="C124" s="18" t="s">
-        <v>208</v>
-      </c>
-      <c r="D124" s="18"/>
-      <c r="E124" s="25" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A125" s="42"/>
-      <c r="B125" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="C125" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="D125" s="7"/>
-      <c r="E125" s="24" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A126" s="42"/>
-      <c r="B126" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="C126" s="18" t="s">
-        <v>214</v>
-      </c>
-      <c r="D126" s="18"/>
-      <c r="E126" s="25" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A127" s="42"/>
-      <c r="B127" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="C127" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="D127" s="4"/>
-      <c r="E127" s="27" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A128" s="42"/>
-      <c r="B128" s="9"/>
-      <c r="C128" s="10"/>
-      <c r="D128" s="10"/>
-      <c r="E128" s="29" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A129" s="42"/>
-      <c r="B129" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="C129" s="43" t="s">
-        <v>220</v>
-      </c>
-      <c r="D129" s="7"/>
-      <c r="E129" s="24" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A130" s="42"/>
-      <c r="B130" s="17" t="s">
-        <v>222</v>
-      </c>
-      <c r="C130" s="18" t="s">
-        <v>223</v>
-      </c>
-      <c r="D130" s="18"/>
-      <c r="E130" s="44" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A131" s="42"/>
-      <c r="B131" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="C131" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="D131" s="7"/>
-      <c r="E131" s="40" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A132" s="42"/>
-      <c r="B132" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="C132" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="D132" s="4"/>
-      <c r="E132" s="48" t="s">
+    <row r="135" spans="1:5">
+      <c r="A135" s="42"/>
+      <c r="B135" s="70" t="s">
+        <v>257</v>
+      </c>
+      <c r="C135" s="71"/>
+      <c r="D135" s="7" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A133" s="42"/>
-      <c r="B133" s="28" t="s">
-        <v>236</v>
-      </c>
-      <c r="C133" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="D133" s="7"/>
-      <c r="E133" s="8" t="s">
+      <c r="E135" s="8" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A134" s="42"/>
-      <c r="B134" s="70" t="s">
-        <v>259</v>
-      </c>
-      <c r="C134" s="71"/>
-      <c r="D134" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="E134" s="8" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A135" s="42"/>
-      <c r="B135" s="70"/>
-      <c r="C135" s="71"/>
-      <c r="D135" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="E135" s="8" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5">
       <c r="A136" s="42"/>
       <c r="B136" s="70"/>
       <c r="C136" s="71"/>
       <c r="D136" s="14" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E136" s="8" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
       <c r="A137" s="42"/>
       <c r="B137" s="70"/>
       <c r="C137" s="71"/>
       <c r="D137" s="14" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="E137" s="8" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
       <c r="A138" s="42"/>
       <c r="B138" s="70"/>
       <c r="C138" s="71"/>
       <c r="D138" s="14" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="E138" s="8" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
       <c r="A139" s="42"/>
       <c r="B139" s="70"/>
       <c r="C139" s="71"/>
       <c r="D139" s="14" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E139" s="8" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
       <c r="A140" s="42"/>
       <c r="B140" s="70"/>
       <c r="C140" s="71"/>
       <c r="D140" s="14" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="E140" s="8" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
       <c r="A141" s="42"/>
       <c r="B141" s="70"/>
       <c r="C141" s="71"/>
       <c r="D141" s="14" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="E141" s="8" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
       <c r="A142" s="42"/>
       <c r="B142" s="70"/>
       <c r="C142" s="71"/>
       <c r="D142" s="14" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E142" s="8" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
       <c r="A143" s="42"/>
       <c r="B143" s="70"/>
       <c r="C143" s="71"/>
       <c r="D143" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="E143" s="8" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" s="42"/>
+      <c r="B144" s="70"/>
+      <c r="C144" s="71"/>
+      <c r="D144" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="E144" s="49" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A145" s="42"/>
+      <c r="B145" s="72"/>
+      <c r="C145" s="73"/>
+      <c r="D145" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="E143" s="49" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A144" s="42"/>
-      <c r="B144" s="72"/>
-      <c r="C144" s="73"/>
-      <c r="D144" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="E144" s="50" t="s">
+      <c r="E145" s="50" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" s="42"/>
+      <c r="B146" s="51" t="s">
+        <v>260</v>
+      </c>
+      <c r="C146" s="4"/>
+      <c r="D146" s="4"/>
+      <c r="E146" s="48" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A145" s="42"/>
-      <c r="B145" s="51" t="s">
-        <v>262</v>
-      </c>
-      <c r="C145" s="4"/>
-      <c r="D145" s="4"/>
-      <c r="E145" s="48" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A146" s="42"/>
-      <c r="B146" s="9"/>
-      <c r="C146" s="10"/>
-      <c r="D146" s="10"/>
-      <c r="E146" s="50" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" ht="15.75" thickBot="1">
       <c r="A147" s="42"/>
-      <c r="B147" s="3"/>
-      <c r="C147" s="4"/>
-      <c r="D147" s="4"/>
-      <c r="E147" s="52" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B147" s="9"/>
+      <c r="C147" s="10"/>
+      <c r="D147" s="10"/>
+      <c r="E147" s="50" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
       <c r="A148" s="42"/>
-      <c r="B148" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="C148" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="D148" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="E148" s="49" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B148" s="3"/>
+      <c r="C148" s="4"/>
+      <c r="D148" s="4"/>
+      <c r="E148" s="52" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
       <c r="A149" s="42"/>
       <c r="B149" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="C149" s="7"/>
+        <v>304</v>
+      </c>
+      <c r="C149" s="7" t="s">
+        <v>304</v>
+      </c>
       <c r="D149" s="7" t="s">
-        <v>263</v>
+        <v>231</v>
       </c>
       <c r="E149" s="49" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
       <c r="A150" s="42"/>
       <c r="B150" s="6" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C150" s="7"/>
       <c r="D150" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E150" s="49" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
       <c r="A151" s="42"/>
-      <c r="B151" s="6"/>
+      <c r="B151" s="6" t="s">
+        <v>306</v>
+      </c>
       <c r="C151" s="7"/>
       <c r="D151" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E151" s="49" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
       <c r="A152" s="42"/>
       <c r="B152" s="6"/>
       <c r="C152" s="7"/>
       <c r="D152" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="E152" s="49" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
       <c r="A153" s="42"/>
       <c r="B153" s="6"/>
       <c r="C153" s="7"/>
       <c r="D153" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E153" s="49" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
       <c r="A154" s="42"/>
       <c r="B154" s="6"/>
       <c r="C154" s="7"/>
       <c r="D154" s="7" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="E154" s="49" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
       <c r="A155" s="42"/>
       <c r="B155" s="6"/>
       <c r="C155" s="7"/>
       <c r="D155" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="E155" s="49" t="s">
         <v>274</v>
       </c>
-      <c r="E155" s="49" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="156" spans="1:5">
       <c r="A156" s="42"/>
       <c r="B156" s="6"/>
       <c r="C156" s="7"/>
       <c r="D156" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="E156" s="49" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
       <c r="A157" s="42"/>
       <c r="B157" s="6"/>
       <c r="C157" s="7"/>
       <c r="D157" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E157" s="49" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
       <c r="A158" s="42"/>
       <c r="B158" s="6"/>
       <c r="C158" s="7"/>
       <c r="D158" s="7" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="E158" s="49" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
       <c r="A159" s="42"/>
       <c r="B159" s="6"/>
       <c r="C159" s="7"/>
       <c r="D159" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E159" s="49" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
       <c r="A160" s="42"/>
       <c r="B160" s="6"/>
       <c r="C160" s="7"/>
       <c r="D160" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="E160" s="49" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
       <c r="A161" s="42"/>
       <c r="B161" s="6"/>
       <c r="C161" s="7"/>
       <c r="D161" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E161" s="49" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
       <c r="A162" s="42"/>
       <c r="B162" s="6"/>
       <c r="C162" s="7"/>
       <c r="D162" s="7" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E162" s="49" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
       <c r="A163" s="42"/>
       <c r="B163" s="6"/>
       <c r="C163" s="7"/>
       <c r="D163" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="E163" s="49" t="s">
         <v>291</v>
       </c>
-      <c r="E163" s="49" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="164" spans="1:5">
       <c r="A164" s="42"/>
       <c r="B164" s="6"/>
       <c r="C164" s="7"/>
       <c r="D164" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="E164" s="49" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
       <c r="A165" s="42"/>
       <c r="B165" s="6"/>
       <c r="C165" s="7"/>
       <c r="D165" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E165" s="49" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
       <c r="A166" s="42"/>
       <c r="B166" s="6"/>
       <c r="C166" s="7"/>
       <c r="D166" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="E166" s="49" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
       <c r="A167" s="42"/>
       <c r="B167" s="6"/>
       <c r="C167" s="7"/>
       <c r="D167" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="E167" s="49" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
       <c r="A168" s="42"/>
       <c r="B168" s="6"/>
       <c r="C168" s="7"/>
       <c r="D168" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="E168" s="49" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" s="42"/>
+      <c r="B169" s="6"/>
+      <c r="C169" s="7"/>
+      <c r="D169" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="E169" s="49" t="s">
         <v>302</v>
       </c>
-      <c r="E168" s="49" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A169" s="42"/>
-      <c r="B169" s="9"/>
-      <c r="C169" s="10"/>
-      <c r="D169" s="10" t="s">
+    </row>
+    <row r="170" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A170" s="42"/>
+      <c r="B170" s="9"/>
+      <c r="C170" s="10"/>
+      <c r="D170" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="E170" s="50" t="s">
         <v>303</v>
       </c>
-      <c r="E169" s="50" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A170" s="42"/>
-      <c r="B170" s="3"/>
-      <c r="C170" s="4"/>
-      <c r="D170" s="4"/>
-      <c r="E170" s="52" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="171" spans="1:5">
       <c r="A171" s="42"/>
-      <c r="B171" s="6"/>
-      <c r="C171" s="7"/>
-      <c r="D171" s="7"/>
-      <c r="E171" s="49" t="s">
+      <c r="B171" s="3"/>
+      <c r="C171" s="4"/>
+      <c r="D171" s="4"/>
+      <c r="E171" s="52" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5">
       <c r="A172" s="42"/>
-      <c r="B172" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="C172" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="D172" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="E172" s="8" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B172" s="6"/>
+      <c r="C172" s="7"/>
+      <c r="D172" s="7"/>
+      <c r="E172" s="49" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
       <c r="A173" s="42"/>
       <c r="B173" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="C173" s="7"/>
-      <c r="D173" s="14" t="s">
-        <v>239</v>
+      <c r="C173" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="D173" s="7" t="s">
+        <v>231</v>
       </c>
       <c r="E173" s="8" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
       <c r="A174" s="42"/>
       <c r="B174" s="6" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C174" s="7"/>
       <c r="D174" s="14" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E174" s="8" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
       <c r="A175" s="42"/>
-      <c r="B175" s="6"/>
+      <c r="B175" s="6" t="s">
+        <v>306</v>
+      </c>
       <c r="C175" s="7"/>
       <c r="D175" s="14" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="E175" s="8" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
       <c r="A176" s="42"/>
       <c r="B176" s="6"/>
       <c r="C176" s="7"/>
       <c r="D176" s="14" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="E176" s="8" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
       <c r="A177" s="42"/>
       <c r="B177" s="6"/>
       <c r="C177" s="7"/>
       <c r="D177" s="14" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E177" s="8" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
       <c r="A178" s="42"/>
       <c r="B178" s="6"/>
       <c r="C178" s="7"/>
       <c r="D178" s="14" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="E178" s="8" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
       <c r="A179" s="42"/>
       <c r="B179" s="6"/>
       <c r="C179" s="7"/>
       <c r="D179" s="14" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="E179" s="8" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
       <c r="A180" s="42"/>
       <c r="B180" s="6"/>
       <c r="C180" s="7"/>
       <c r="D180" s="14" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E180" s="8" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
       <c r="A181" s="42"/>
       <c r="B181" s="6"/>
       <c r="C181" s="7"/>
       <c r="D181" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="E181" s="8" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" s="42"/>
+      <c r="B182" s="6"/>
+      <c r="C182" s="7"/>
+      <c r="D182" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="E182" s="49" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A183" s="42"/>
+      <c r="B183" s="9"/>
+      <c r="C183" s="10"/>
+      <c r="D183" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="E181" s="49" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A182" s="42"/>
-      <c r="B182" s="9"/>
-      <c r="C182" s="10"/>
-      <c r="D182" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="E182" s="50" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A183" s="42"/>
-      <c r="B183" s="3"/>
-      <c r="C183" s="4"/>
-      <c r="D183" s="4"/>
-      <c r="E183" s="52" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E183" s="50" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
       <c r="A184" s="42"/>
-      <c r="B184" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="C184" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="D184" s="7"/>
-      <c r="E184" s="53" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B184" s="3"/>
+      <c r="C184" s="4"/>
+      <c r="D184" s="4"/>
+      <c r="E184" s="52" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
       <c r="A185" s="42"/>
       <c r="B185" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="C185" s="7"/>
+        <v>313</v>
+      </c>
+      <c r="C185" s="7" t="s">
+        <v>313</v>
+      </c>
       <c r="D185" s="7"/>
-      <c r="E185" s="8"/>
-    </row>
-    <row r="186" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E185" s="53" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
       <c r="A186" s="42"/>
-      <c r="B186" s="9" t="s">
-        <v>308</v>
-      </c>
-      <c r="C186" s="10"/>
-      <c r="D186" s="10"/>
-      <c r="E186" s="11"/>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B186" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="C186" s="7"/>
+      <c r="D186" s="7"/>
+      <c r="E186" s="8"/>
+    </row>
+    <row r="187" spans="1:5" ht="15.75" thickBot="1">
       <c r="A187" s="42"/>
-      <c r="B187" s="3"/>
-      <c r="C187" s="4"/>
-      <c r="D187" s="4"/>
-      <c r="E187" s="52" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B187" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="C187" s="10"/>
+      <c r="D187" s="10"/>
+      <c r="E187" s="11"/>
+    </row>
+    <row r="188" spans="1:5">
       <c r="A188" s="42"/>
-      <c r="B188" s="6" t="s">
-        <v>319</v>
-      </c>
-      <c r="C188" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="D188" s="7"/>
-      <c r="E188" s="54" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B188" s="3"/>
+      <c r="C188" s="4"/>
+      <c r="D188" s="4"/>
+      <c r="E188" s="52" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
       <c r="A189" s="42"/>
       <c r="B189" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="C189" s="7"/>
+        <v>317</v>
+      </c>
+      <c r="C189" s="7" t="s">
+        <v>317</v>
+      </c>
       <c r="D189" s="7"/>
-      <c r="E189" s="8"/>
-    </row>
-    <row r="190" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E189" s="54" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
       <c r="A190" s="42"/>
-      <c r="B190" s="9" t="s">
-        <v>308</v>
-      </c>
-      <c r="C190" s="10"/>
-      <c r="D190" s="10"/>
-      <c r="E190" s="11"/>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B190" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="C190" s="7"/>
+      <c r="D190" s="7"/>
+      <c r="E190" s="8"/>
+    </row>
+    <row r="191" spans="1:5" ht="15.75" thickBot="1">
       <c r="A191" s="42"/>
-      <c r="B191" s="3"/>
-      <c r="C191" s="4"/>
-      <c r="D191" s="4"/>
-      <c r="E191" s="52" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="B191" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="C191" s="10"/>
+      <c r="D191" s="10"/>
+      <c r="E191" s="11"/>
+    </row>
+    <row r="192" spans="1:5">
       <c r="A192" s="42"/>
-      <c r="B192" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="C192" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="D192" s="7"/>
-      <c r="E192" s="8" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B192" s="3"/>
+      <c r="C192" s="4"/>
+      <c r="D192" s="4"/>
+      <c r="E192" s="52" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="193" spans="1:14" ht="17.25">
       <c r="A193" s="42"/>
       <c r="B193" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="C193" s="7"/>
+        <v>318</v>
+      </c>
+      <c r="C193" s="7" t="s">
+        <v>318</v>
+      </c>
       <c r="D193" s="7"/>
-      <c r="E193" s="49" t="s">
+      <c r="E193" s="8" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="194" spans="1:14">
+      <c r="A194" s="42"/>
+      <c r="B194" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="C194" s="7"/>
+      <c r="D194" s="7"/>
+      <c r="E194" s="49" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="195" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A195" s="42"/>
+      <c r="B195" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="C195" s="10"/>
+      <c r="D195" s="10"/>
+      <c r="E195" s="11" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="196" spans="1:14">
+      <c r="A196" s="42"/>
+      <c r="B196" s="3"/>
+      <c r="C196" s="4"/>
+      <c r="D196" s="4"/>
+      <c r="E196" s="52" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="194" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A194" s="42"/>
-      <c r="B194" s="9" t="s">
-        <v>308</v>
-      </c>
-      <c r="C194" s="10"/>
-      <c r="D194" s="10"/>
-      <c r="E194" s="11" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A195" s="42"/>
-      <c r="B195" s="3"/>
-      <c r="C195" s="4"/>
-      <c r="D195" s="4"/>
-      <c r="E195" s="52" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A196" s="42"/>
-      <c r="B196" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="C196" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="D196" s="7"/>
-      <c r="E196" s="53" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:14">
       <c r="A197" s="42"/>
       <c r="B197" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="C197" s="7"/>
+        <v>323</v>
+      </c>
+      <c r="C197" s="7" t="s">
+        <v>323</v>
+      </c>
       <c r="D197" s="7"/>
-      <c r="E197" s="8"/>
-    </row>
-    <row r="198" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E197" s="53" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="198" spans="1:14">
       <c r="A198" s="42"/>
-      <c r="B198" s="9" t="s">
-        <v>308</v>
-      </c>
-      <c r="C198" s="10"/>
-      <c r="D198" s="10"/>
-      <c r="E198" s="11"/>
-    </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B198" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="C198" s="7"/>
+      <c r="D198" s="7"/>
+      <c r="E198" s="8"/>
+    </row>
+    <row r="199" spans="1:14" ht="15.75" thickBot="1">
       <c r="A199" s="42"/>
-      <c r="B199" s="51" t="s">
+      <c r="B199" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="C199" s="10"/>
+      <c r="D199" s="10"/>
+      <c r="E199" s="11"/>
+    </row>
+    <row r="200" spans="1:14">
+      <c r="A200" s="42"/>
+      <c r="B200" s="51" t="s">
+        <v>326</v>
+      </c>
+      <c r="C200" s="4"/>
+      <c r="D200" s="4"/>
+      <c r="E200" s="48" t="s">
+        <v>324</v>
+      </c>
+      <c r="N200" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="201" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A201" s="42"/>
+      <c r="B201" s="9"/>
+      <c r="C201" s="10"/>
+      <c r="D201" s="10"/>
+      <c r="E201" s="55" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="202" spans="1:14">
+      <c r="A202" s="56" t="s">
+        <v>325</v>
+      </c>
+      <c r="B202" s="51" t="s">
         <v>328</v>
       </c>
-      <c r="C199" s="4"/>
-      <c r="D199" s="4"/>
-      <c r="E199" s="48" t="s">
-        <v>326</v>
-      </c>
-      <c r="N199" t="s">
+      <c r="C202" s="4"/>
+      <c r="D202" s="4"/>
+      <c r="E202" s="5" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="200" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A200" s="42"/>
-      <c r="B200" s="9"/>
-      <c r="C200" s="10"/>
-      <c r="D200" s="10"/>
-      <c r="E200" s="55" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A201" s="56" t="s">
-        <v>327</v>
-      </c>
-      <c r="B201" s="51" t="s">
+    <row r="203" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A203" s="57"/>
+      <c r="B203" s="58"/>
+      <c r="C203" s="10"/>
+      <c r="D203" s="10"/>
+      <c r="E203" s="11" t="s">
         <v>330</v>
       </c>
-      <c r="C201" s="4"/>
-      <c r="D201" s="4"/>
-      <c r="E201" s="5" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="202" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A202" s="57"/>
-      <c r="B202" s="58"/>
-      <c r="C202" s="10"/>
-      <c r="D202" s="10"/>
-      <c r="E202" s="11" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="203" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A203" s="57"/>
-      <c r="B203" s="59" t="s">
-        <v>349</v>
-      </c>
-      <c r="C203" s="18"/>
-      <c r="D203" s="18"/>
-      <c r="E203" s="21" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="204" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="204" spans="1:14" ht="15.75" thickBot="1">
       <c r="A204" s="57"/>
       <c r="B204" s="59" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C204" s="18"/>
       <c r="D204" s="18"/>
       <c r="E204" s="21" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.3">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="205" spans="1:14" ht="15.75" thickBot="1">
       <c r="A205" s="57"/>
-      <c r="B205" s="51" t="s">
-        <v>347</v>
-      </c>
-      <c r="C205" s="4"/>
-      <c r="D205" s="13" t="s">
+      <c r="B205" s="59" t="s">
+        <v>346</v>
+      </c>
+      <c r="C205" s="18"/>
+      <c r="D205" s="18"/>
+      <c r="E205" s="21" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="206" spans="1:14">
+      <c r="A206" s="57"/>
+      <c r="B206" s="51" t="s">
+        <v>345</v>
+      </c>
+      <c r="C206" s="4"/>
+      <c r="D206" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E205" s="5" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="206" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A206" s="57"/>
-      <c r="B206" s="9"/>
-      <c r="C206" s="10"/>
-      <c r="D206" s="12" t="s">
+      <c r="E206" s="5" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="207" spans="1:14" ht="15.75" thickBot="1">
+      <c r="A207" s="57"/>
+      <c r="B207" s="9"/>
+      <c r="C207" s="10"/>
+      <c r="D207" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E206" s="11" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="207" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A207" s="57"/>
-      <c r="B207" s="59" t="s">
-        <v>346</v>
-      </c>
-      <c r="C207" s="18"/>
-      <c r="D207" s="18"/>
-      <c r="E207" s="21" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="208" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E207" s="11" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="208" spans="1:14" ht="15.75" thickBot="1">
       <c r="A208" s="57"/>
       <c r="B208" s="59" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C208" s="18"/>
       <c r="D208" s="18"/>
       <c r="E208" s="21" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" ht="15.75" thickBot="1">
       <c r="A209" s="57"/>
       <c r="B209" s="59" t="s">
-        <v>360</v>
+        <v>343</v>
       </c>
       <c r="C209" s="18"/>
       <c r="D209" s="18"/>
       <c r="E209" s="21" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" ht="15.75" thickBot="1">
       <c r="A210" s="57"/>
       <c r="B210" s="59" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="C210" s="18"/>
       <c r="D210" s="18"/>
       <c r="E210" s="21" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" ht="15.75" thickBot="1">
       <c r="A211" s="57"/>
       <c r="B211" s="59" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="C211" s="18"/>
       <c r="D211" s="18"/>
       <c r="E211" s="21" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" ht="15.75" thickBot="1">
       <c r="A212" s="57"/>
       <c r="B212" s="59" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="C212" s="18"/>
       <c r="D212" s="18"/>
       <c r="E212" s="21" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A213" s="57"/>
+      <c r="B213" s="59" t="s">
+        <v>349</v>
+      </c>
+      <c r="C213" s="18"/>
+      <c r="D213" s="18"/>
+      <c r="E213" s="21" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="A214" s="57"/>
+      <c r="B214" s="51" t="s">
+        <v>350</v>
+      </c>
+      <c r="C214" s="4"/>
+      <c r="D214" s="4"/>
+      <c r="E214" s="5" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215" s="57"/>
+      <c r="B215" s="60"/>
+      <c r="C215" s="7"/>
+      <c r="D215" s="7"/>
+      <c r="E215" s="8" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A213" s="57"/>
-      <c r="B213" s="51" t="s">
-        <v>352</v>
-      </c>
-      <c r="C213" s="4"/>
-      <c r="D213" s="4"/>
-      <c r="E213" s="5" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A214" s="57"/>
-      <c r="B214" s="60"/>
-      <c r="C214" s="7"/>
-      <c r="D214" s="7"/>
-      <c r="E214" s="8" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A215" s="57"/>
-      <c r="B215" s="58"/>
-      <c r="C215" s="10"/>
-      <c r="D215" s="10"/>
-      <c r="E215" s="11" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:5" ht="15.75" thickBot="1">
       <c r="A216" s="57"/>
-      <c r="B216" s="59" t="s">
-        <v>353</v>
-      </c>
-      <c r="C216" s="18"/>
-      <c r="D216" s="18"/>
-      <c r="E216" s="21" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B216" s="58"/>
+      <c r="C216" s="10"/>
+      <c r="D216" s="10"/>
+      <c r="E216" s="11" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" ht="15.75" thickBot="1">
       <c r="A217" s="57"/>
       <c r="B217" s="59" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C217" s="18"/>
       <c r="D217" s="18"/>
       <c r="E217" s="21" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" ht="15.75" thickBot="1">
       <c r="A218" s="57"/>
       <c r="B218" s="59" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C218" s="18"/>
       <c r="D218" s="18"/>
       <c r="E218" s="21" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" ht="15.75" thickBot="1">
       <c r="A219" s="57"/>
       <c r="B219" s="59" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C219" s="18"/>
       <c r="D219" s="18"/>
       <c r="E219" s="21" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" ht="15.75" thickBot="1">
       <c r="A220" s="57"/>
       <c r="B220" s="59" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C220" s="18"/>
       <c r="D220" s="18"/>
       <c r="E220" s="21" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A221" s="61" t="s">
-        <v>362</v>
-      </c>
-      <c r="B221" s="51" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A221" s="57"/>
+      <c r="B221" s="59" t="s">
+        <v>355</v>
+      </c>
+      <c r="C221" s="18"/>
+      <c r="D221" s="18"/>
+      <c r="E221" s="21" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="A222" s="61" t="s">
+        <v>360</v>
+      </c>
+      <c r="B222" s="51" t="s">
+        <v>361</v>
+      </c>
+      <c r="C222" s="4"/>
+      <c r="D222" s="4"/>
+      <c r="E222" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="C221" s="4"/>
-      <c r="D221" s="4"/>
-      <c r="E221" s="5" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A222" s="62"/>
-      <c r="B222" s="9"/>
-      <c r="C222" s="10"/>
-      <c r="D222" s="10"/>
-      <c r="E222" s="11" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="223" spans="1:5" ht="15.75" thickBot="1">
       <c r="A223" s="62"/>
-      <c r="B223" s="59" t="s">
+      <c r="B223" s="9"/>
+      <c r="C223" s="10"/>
+      <c r="D223" s="10"/>
+      <c r="E223" s="11" t="s">
         <v>364</v>
       </c>
-      <c r="C223" s="18"/>
-      <c r="D223" s="18"/>
-      <c r="E223" s="20" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="224" spans="1:5" ht="15.75" thickBot="1">
       <c r="A224" s="62"/>
       <c r="B224" s="59" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="C224" s="18"/>
       <c r="D224" s="18"/>
       <c r="E224" s="20" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A225" s="62"/>
+      <c r="B225" s="59" t="s">
+        <v>366</v>
+      </c>
+      <c r="C225" s="18"/>
+      <c r="D225" s="18"/>
+      <c r="E225" s="20" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="A226" s="62"/>
+      <c r="B226" s="51" t="s">
+        <v>368</v>
+      </c>
+      <c r="C226" s="4"/>
+      <c r="D226" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E226" s="63" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A225" s="62"/>
-      <c r="B225" s="51" t="s">
-        <v>370</v>
-      </c>
-      <c r="C225" s="4"/>
-      <c r="D225" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E225" s="63" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A226" s="62"/>
-      <c r="B226" s="6"/>
-      <c r="C226" s="7"/>
-      <c r="D226" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E226" s="49" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:5">
       <c r="A227" s="62"/>
       <c r="B227" s="6"/>
       <c r="C227" s="7"/>
       <c r="D227" s="14" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E227" s="49" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
       <c r="A228" s="62"/>
       <c r="B228" s="6"/>
       <c r="C228" s="7"/>
       <c r="D228" s="14" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E228" s="49" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
       <c r="A229" s="62"/>
       <c r="B229" s="6"/>
       <c r="C229" s="7"/>
       <c r="D229" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E229" s="49" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
+      <c r="A230" s="62"/>
+      <c r="B230" s="6"/>
+      <c r="C230" s="7"/>
+      <c r="D230" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="E229" s="49" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A230" s="62"/>
-      <c r="B230" s="9"/>
-      <c r="C230" s="10"/>
-      <c r="D230" s="12" t="s">
+      <c r="E230" s="49" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A231" s="62"/>
+      <c r="B231" s="9"/>
+      <c r="C231" s="10"/>
+      <c r="D231" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E230" s="50" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A231" s="62"/>
-      <c r="B231" s="59" t="s">
-        <v>378</v>
-      </c>
-      <c r="C231" s="18"/>
-      <c r="D231" s="64" t="s">
-        <v>18</v>
-      </c>
-      <c r="E231" s="20" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E231" s="50" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" ht="15.75" thickBot="1">
       <c r="A232" s="62"/>
       <c r="B232" s="59" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C232" s="18"/>
       <c r="D232" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="E232" s="20" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A233" s="62"/>
+      <c r="B233" s="59" t="s">
+        <v>378</v>
+      </c>
+      <c r="C233" s="18"/>
+      <c r="D233" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="E232" s="20" t="s">
+      <c r="E233" s="20" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
+      <c r="A234" s="62"/>
+      <c r="B234" s="51" t="s">
+        <v>380</v>
+      </c>
+      <c r="C234" s="4"/>
+      <c r="D234" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="E234" s="63" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A233" s="62"/>
-      <c r="B233" s="51" t="s">
-        <v>382</v>
-      </c>
-      <c r="C233" s="4"/>
-      <c r="D233" s="13" t="s">
-        <v>247</v>
-      </c>
-      <c r="E233" s="63" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A234" s="62"/>
-      <c r="B234" s="6"/>
-      <c r="C234" s="7"/>
-      <c r="D234" s="14" t="s">
-        <v>243</v>
-      </c>
-      <c r="E234" s="49" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:5">
       <c r="A235" s="62"/>
       <c r="B235" s="6"/>
       <c r="C235" s="7"/>
       <c r="D235" s="14" t="s">
-        <v>38</v>
+        <v>241</v>
       </c>
       <c r="E235" s="49" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
       <c r="A236" s="62"/>
       <c r="B236" s="6"/>
       <c r="C236" s="7"/>
       <c r="D236" s="14" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="E236" s="49" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
       <c r="A237" s="62"/>
       <c r="B237" s="6"/>
       <c r="C237" s="7"/>
       <c r="D237" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E237" s="49" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5">
+      <c r="A238" s="62"/>
+      <c r="B238" s="6"/>
+      <c r="C238" s="7"/>
+      <c r="D238" s="14" t="s">
+        <v>385</v>
+      </c>
+      <c r="E238" s="65" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A239" s="62"/>
+      <c r="B239" s="9"/>
+      <c r="C239" s="10"/>
+      <c r="D239" s="10"/>
+      <c r="E239" s="66" t="s">
         <v>387</v>
       </c>
-      <c r="E237" s="65" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A238" s="62"/>
-      <c r="B238" s="9"/>
-      <c r="C238" s="10"/>
-      <c r="D238" s="10"/>
-      <c r="E238" s="66" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A239" s="62"/>
-      <c r="B239" s="59" t="s">
-        <v>390</v>
-      </c>
-      <c r="C239" s="18"/>
-      <c r="D239" s="18"/>
-      <c r="E239" s="67" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="240" spans="1:5" ht="15.75" thickBot="1">
       <c r="A240" s="62"/>
       <c r="B240" s="59" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C240" s="18"/>
       <c r="D240" s="18"/>
-      <c r="E240" s="21" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E240" s="67" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" ht="15.75" thickBot="1">
       <c r="A241" s="62"/>
       <c r="B241" s="59" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C241" s="18"/>
       <c r="D241" s="18"/>
       <c r="E241" s="21" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="242" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" ht="15.75" thickBot="1">
       <c r="A242" s="62"/>
       <c r="B242" s="59" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="C242" s="18"/>
       <c r="D242" s="18"/>
       <c r="E242" s="21" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A243" s="62"/>
+      <c r="B243" s="59" t="s">
+        <v>394</v>
+      </c>
+      <c r="C243" s="18"/>
+      <c r="D243" s="18"/>
+      <c r="E243" s="21" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5">
+      <c r="A244" s="62"/>
+      <c r="B244" s="51" t="s">
+        <v>396</v>
+      </c>
+      <c r="C244" s="4"/>
+      <c r="D244" s="4"/>
+      <c r="E244" s="5" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A243" s="62"/>
-      <c r="B243" s="51" t="s">
+    <row r="245" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A245" s="62"/>
+      <c r="B245" s="9"/>
+      <c r="C245" s="10"/>
+      <c r="D245" s="10"/>
+      <c r="E245" s="11" t="s">
         <v>398</v>
       </c>
-      <c r="C243" s="4"/>
-      <c r="D243" s="4"/>
-      <c r="E243" s="5" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A244" s="62"/>
-      <c r="B244" s="9"/>
-      <c r="C244" s="10"/>
-      <c r="D244" s="10"/>
-      <c r="E244" s="11" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="245" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A245" s="62"/>
-      <c r="B245" s="59" t="s">
-        <v>401</v>
-      </c>
-      <c r="C245" s="18"/>
-      <c r="D245" s="18"/>
-      <c r="E245" s="21" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="246" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="246" spans="1:5" ht="15.75" thickBot="1">
       <c r="A246" s="62"/>
       <c r="B246" s="59" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C246" s="18"/>
       <c r="D246" s="18"/>
       <c r="E246" s="21" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" ht="15.75" thickBot="1">
       <c r="A247" s="62"/>
       <c r="B247" s="59" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="C247" s="18"/>
       <c r="D247" s="18"/>
       <c r="E247" s="21" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="248" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" ht="15.75" thickBot="1">
       <c r="A248" s="62"/>
       <c r="B248" s="59" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C248" s="18"/>
       <c r="D248" s="18"/>
       <c r="E248" s="21" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="249" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" ht="15.75" thickBot="1">
       <c r="A249" s="62"/>
       <c r="B249" s="59" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="C249" s="18"/>
       <c r="D249" s="18"/>
       <c r="E249" s="21" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="250" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" ht="15.75" thickBot="1">
       <c r="A250" s="62"/>
       <c r="B250" s="59" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="C250" s="18"/>
       <c r="D250" s="18"/>
       <c r="E250" s="21" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="251" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" ht="45.75" thickBot="1">
       <c r="A251" s="62"/>
       <c r="B251" s="59" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C251" s="18"/>
-      <c r="D251" s="18"/>
-      <c r="E251" s="21" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D251" s="68" t="s">
+        <v>465</v>
+      </c>
+      <c r="E251" s="22" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" ht="30.75" thickBot="1">
       <c r="A252" s="62"/>
       <c r="B252" s="59" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="C252" s="18"/>
-      <c r="D252" s="18"/>
-      <c r="E252" s="21" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="253" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D252" s="68" t="s">
+        <v>464</v>
+      </c>
+      <c r="E252" s="22" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" ht="30.75" thickBot="1">
       <c r="A253" s="62"/>
       <c r="B253" s="59" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="C253" s="18"/>
-      <c r="D253" s="18"/>
-      <c r="E253" s="21" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D253" s="69" t="s">
+        <v>463</v>
+      </c>
+      <c r="E253" s="22" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" ht="15.75" thickBot="1">
       <c r="A254" s="62"/>
-      <c r="B254" s="51" t="s">
-        <v>419</v>
-      </c>
-      <c r="C254" s="4"/>
-      <c r="D254" s="13" t="s">
-        <v>252</v>
-      </c>
-      <c r="E254" s="5" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B254" s="59" t="s">
+        <v>412</v>
+      </c>
+      <c r="C254" s="18"/>
+      <c r="D254" s="18"/>
+      <c r="E254" s="21" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5">
       <c r="A255" s="62"/>
-      <c r="B255" s="6"/>
-      <c r="C255" s="7"/>
-      <c r="D255" s="14" t="s">
+      <c r="B255" s="51" t="s">
+        <v>414</v>
+      </c>
+      <c r="C255" s="4"/>
+      <c r="D255" s="13" t="s">
         <v>250</v>
       </c>
-      <c r="E255" s="8" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E255" s="5" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5">
       <c r="A256" s="62"/>
       <c r="B256" s="6"/>
       <c r="C256" s="7"/>
-      <c r="D256" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="E256" s="8"/>
-    </row>
-    <row r="257" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D256" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="E256" s="8" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5">
       <c r="A257" s="62"/>
-      <c r="B257" s="9"/>
-      <c r="C257" s="10"/>
-      <c r="D257" s="12" t="s">
-        <v>241</v>
-      </c>
-      <c r="E257" s="11" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="258" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B257" s="6"/>
+      <c r="C257" s="7"/>
+      <c r="D257" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E257" s="8"/>
+    </row>
+    <row r="258" spans="1:5" ht="15.75" thickBot="1">
       <c r="A258" s="62"/>
-      <c r="B258" s="59" t="s">
-        <v>423</v>
-      </c>
-      <c r="C258" s="18"/>
-      <c r="D258" s="18"/>
-      <c r="E258" s="21" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="259" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B258" s="9"/>
+      <c r="C258" s="10"/>
+      <c r="D258" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="E258" s="11" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" ht="15.75" thickBot="1">
       <c r="A259" s="62"/>
       <c r="B259" s="59" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="C259" s="18"/>
       <c r="D259" s="18"/>
       <c r="E259" s="21" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" ht="15.75" thickBot="1">
       <c r="A260" s="62"/>
-      <c r="B260" s="51" t="s">
-        <v>427</v>
-      </c>
-      <c r="C260" s="4"/>
-      <c r="D260" s="4"/>
-      <c r="E260" s="5" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B260" s="59" t="s">
+        <v>420</v>
+      </c>
+      <c r="C260" s="18"/>
+      <c r="D260" s="18"/>
+      <c r="E260" s="21" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5">
       <c r="A261" s="62"/>
-      <c r="B261" s="6"/>
-      <c r="C261" s="7"/>
-      <c r="D261" s="7"/>
-      <c r="E261" s="8" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B261" s="51" t="s">
+        <v>422</v>
+      </c>
+      <c r="C261" s="4"/>
+      <c r="D261" s="4"/>
+      <c r="E261" s="5" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5">
       <c r="A262" s="62"/>
       <c r="B262" s="6"/>
       <c r="C262" s="7"/>
       <c r="D262" s="7"/>
       <c r="E262" s="8" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5">
       <c r="A263" s="62"/>
       <c r="B263" s="6"/>
       <c r="C263" s="7"/>
       <c r="D263" s="7"/>
       <c r="E263" s="8" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5">
       <c r="A264" s="62"/>
       <c r="B264" s="6"/>
       <c r="C264" s="7"/>
       <c r="D264" s="7"/>
       <c r="E264" s="8" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="265" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5">
       <c r="A265" s="62"/>
-      <c r="B265" s="9"/>
-      <c r="C265" s="10"/>
-      <c r="D265" s="10"/>
-      <c r="E265" s="11" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="266" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B265" s="6"/>
+      <c r="C265" s="7"/>
+      <c r="D265" s="7"/>
+      <c r="E265" s="8" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" ht="15.75" thickBot="1">
       <c r="A266" s="62"/>
-      <c r="B266" s="59" t="s">
-        <v>436</v>
-      </c>
-      <c r="C266" s="18"/>
-      <c r="D266" s="18"/>
-      <c r="E266" s="21" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="267" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B266" s="9"/>
+      <c r="C266" s="10"/>
+      <c r="D266" s="10"/>
+      <c r="E266" s="11" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" ht="15.75" thickBot="1">
       <c r="A267" s="62"/>
       <c r="B267" s="59" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="C267" s="18"/>
       <c r="D267" s="18"/>
       <c r="E267" s="21" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="268" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" ht="15.75" thickBot="1">
       <c r="A268" s="62"/>
       <c r="B268" s="59" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="C268" s="18"/>
       <c r="D268" s="18"/>
       <c r="E268" s="21" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="269" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" ht="15.75" thickBot="1">
       <c r="A269" s="62"/>
       <c r="B269" s="59" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="C269" s="18"/>
       <c r="D269" s="18"/>
       <c r="E269" s="21" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="270" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" ht="15.75" thickBot="1">
       <c r="A270" s="62"/>
       <c r="B270" s="59" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="C270" s="18"/>
       <c r="D270" s="18"/>
       <c r="E270" s="21" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="271" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" ht="15.75" thickBot="1">
       <c r="A271" s="62"/>
       <c r="B271" s="59" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="C271" s="18"/>
       <c r="D271" s="18"/>
       <c r="E271" s="21" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="272" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" ht="15.75" thickBot="1">
       <c r="A272" s="62"/>
       <c r="B272" s="59" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="C272" s="18"/>
       <c r="D272" s="18"/>
       <c r="E272" s="21" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="273" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" ht="15.75" thickBot="1">
       <c r="A273" s="62"/>
       <c r="B273" s="59" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="C273" s="18"/>
       <c r="D273" s="18"/>
       <c r="E273" s="21" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="274" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" ht="15.75" thickBot="1">
       <c r="A274" s="62"/>
       <c r="B274" s="59" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="C274" s="18"/>
       <c r="D274" s="18"/>
       <c r="E274" s="21" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="275" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" ht="15.75" thickBot="1">
       <c r="A275" s="62"/>
       <c r="B275" s="59" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="C275" s="18"/>
       <c r="D275" s="18"/>
       <c r="E275" s="21" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A276" s="68" t="s">
-        <v>455</v>
-      </c>
-      <c r="B276" s="51" t="s">
-        <v>464</v>
-      </c>
-      <c r="C276" s="4"/>
-      <c r="D276" s="4"/>
-      <c r="E276" s="5"/>
-    </row>
-    <row r="277" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A277" s="69"/>
-      <c r="B277" s="58" t="s">
-        <v>465</v>
-      </c>
-      <c r="C277" s="10"/>
-      <c r="D277" s="10"/>
-      <c r="E277" s="11" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A276" s="62"/>
+      <c r="B276" s="59" t="s">
+        <v>444</v>
+      </c>
+      <c r="C276" s="18"/>
+      <c r="D276" s="18"/>
+      <c r="E276" s="21" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5">
+      <c r="A277" s="36" t="s">
+        <v>447</v>
+      </c>
+      <c r="B277" s="51" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="278" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A278" s="69"/>
-      <c r="B278" s="17" t="s">
+      <c r="C277" s="4"/>
+      <c r="D277" s="4"/>
+      <c r="E277" s="5"/>
+    </row>
+    <row r="278" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A278" s="38"/>
+      <c r="B278" s="58" t="s">
         <v>457</v>
       </c>
-      <c r="C278" s="18"/>
-      <c r="D278" s="18"/>
-      <c r="E278" s="21" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="279" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A279" s="69"/>
+      <c r="C278" s="10"/>
+      <c r="D278" s="10"/>
+      <c r="E278" s="11" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A279" s="38"/>
       <c r="B279" s="17" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="C279" s="18"/>
       <c r="D279" s="18"/>
       <c r="E279" s="21" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="280" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A280" s="69"/>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A280" s="38"/>
       <c r="B280" s="17" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="C280" s="18"/>
       <c r="D280" s="18"/>
       <c r="E280" s="21" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="281" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A281" s="69"/>
+        <v>453</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A281" s="38"/>
       <c r="B281" s="17" t="s">
-        <v>466</v>
+        <v>452</v>
       </c>
       <c r="C281" s="18"/>
       <c r="D281" s="18"/>
       <c r="E281" s="21" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="282" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A282" s="69"/>
+        <v>453</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A282" s="38"/>
       <c r="B282" s="17" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="C282" s="18"/>
       <c r="D282" s="18"/>
       <c r="E282" s="21" t="s">
-        <v>463</v>
+        <v>454</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A283" s="38"/>
+      <c r="B283" s="17" t="s">
+        <v>459</v>
+      </c>
+      <c r="C283" s="18"/>
+      <c r="D283" s="18"/>
+      <c r="E283" s="21" t="s">
+        <v>455</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B134:C144"/>
+    <mergeCell ref="B135:C145"/>
   </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="250" max="16383" man="1"/>
+  </rowBreaks>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="4" max="1048575" man="1"/>
+  </colBreaks>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>